--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_CNP_RDM5118.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_CNP_RDM5118.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleynoronha/code/ccd/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafalkalita/dev/moj/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D882BBF2-E20A-0A4F-8AB6-FA2A3CE0051D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1FA6DF-7CB2-6E47-98A1-9B9005B9D734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="29180" windowHeight="16620" tabRatio="823" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56960" yWindow="6040" windowWidth="29180" windowHeight="16620" tabRatio="823" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7349" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7354" uniqueCount="308">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -971,6 +971,23 @@
   <si>
     <t>CUSTOM  TITLE DISPLAY</t>
   </si>
+  <si>
+    <t>URL to call back to the service for uniqueness. 
+Max Length: &lt;unlimited&gt;</t>
+  </si>
+  <si>
+    <t>Comma separate timeout (each number is a retry , seconds e.g. 5,10,15 = three retries with increasing timeout time). 
+MaxLength: &lt;unlimited&gt;</t>
+  </si>
+  <si>
+    <t>CallbackGetCaseUrl</t>
+  </si>
+  <si>
+    <t>RetriesGetCaseUrl</t>
+  </si>
+  <si>
+    <t>${TEST_STUB_SERVICE_BASE_URL:http://ccd-test-stubs-service-aat.service.core-compute-aat.internal}/case_type/fe-functional-test/callback_get_case</t>
+  </si>
 </sst>
 </file>
 
@@ -981,7 +998,7 @@
     <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1260,8 +1277,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1290,6 +1313,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0432FF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1378,7 +1407,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1501,6 +1530,12 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="26" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="26" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -15635,10 +15670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15652,9 +15687,11 @@
     <col min="7" max="7" width="20.83203125" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15673,7 +15710,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="30" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="30" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31" t="s">
@@ -15697,8 +15734,14 @@
       <c r="I2" s="31" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J2" s="88" t="s">
+        <v>303</v>
+      </c>
+      <c r="K2" s="88" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -15726,8 +15769,14 @@
       <c r="I3" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="89" t="s">
+        <v>305</v>
+      </c>
+      <c r="K3" s="89" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>42736</v>
       </c>
@@ -15747,8 +15796,11 @@
       <c r="I4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>42736</v>
       </c>
@@ -15769,7 +15821,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>42736</v>
       </c>
@@ -15792,7 +15844,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>42736</v>
       </c>
@@ -15815,7 +15867,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>42736</v>
       </c>
@@ -15838,7 +15890,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>42736</v>
       </c>
@@ -15861,7 +15913,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>42736</v>
       </c>
@@ -15884,7 +15936,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>42736</v>
       </c>
@@ -20496,7 +20548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_CNP_RDM5118.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_CNP_RDM5118.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafalkalita/dev/moj/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmcts/IdeaProjects/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1FA6DF-7CB2-6E47-98A1-9B9005B9D734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B1840F-0267-334B-ABF0-39B346F5441D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56960" yWindow="6040" windowWidth="29180" windowHeight="16620" tabRatio="823" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3820" yWindow="2300" windowWidth="28800" windowHeight="17500" tabRatio="823" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7354" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7357" uniqueCount="311">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -986,7 +986,18 @@
     <t>RetriesGetCaseUrl</t>
   </si>
   <si>
-    <t>${TEST_STUB_SERVICE_BASE_URL:http://ccd-test-stubs-service-aat.service.core-compute-aat.internal}/case_type/fe-functional-test/callback_get_case</t>
+    <t>${TEST_STUB_SERVICE_BASE_URL:http://ccd-test-stubs-service-aat.service.core-compute-aat.internal}/case_type/fe-functional-test/callback_get_case_gs</t>
+  </si>
+  <si>
+    <t>Future Elements not for MVP. 
+If '*' is provided, then the current state will not change and will be same as pre condition state
+MaxLength: 70</t>
+  </si>
+  <si>
+    <t>EventEnablingCondition</t>
+  </si>
+  <si>
+    <t>[INJECTED_DATA.gsData]="GS Value"</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1009,7 @@
     <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1283,8 +1294,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1321,8 +1339,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0432FF"/>
+        <bgColor rgb="FF0432FF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1375,6 +1399,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1407,7 +1446,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1535,6 +1574,15 @@
     </xf>
     <xf numFmtId="49" fontId="42" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -1871,7 +1919,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2993,7 +3041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
@@ -15672,8 +15720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15982,7 +16030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="C121" sqref="C121:C135"/>
     </sheetView>
   </sheetViews>
@@ -21102,10 +21150,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21119,17 +21167,18 @@
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="45.33203125" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32" style="30" customWidth="1"/>
-    <col min="12" max="12" width="31.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.83203125" style="30" customWidth="1"/>
-    <col min="14" max="14" width="26.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.33203125" style="30" customWidth="1"/>
-    <col min="16" max="16" width="23.6640625" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="10" max="10" width="42.1640625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32" style="30" customWidth="1"/>
+    <col min="13" max="13" width="31.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.83203125" style="30" customWidth="1"/>
+    <col min="15" max="15" width="26.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.33203125" style="30" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" customWidth="1"/>
+    <col min="18" max="18" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -21147,8 +21196,9 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" ht="84" x14ac:dyDescent="0.15">
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:18" ht="84" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -21172,32 +21222,35 @@
       <c r="I2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="90" t="s">
+        <v>308</v>
+      </c>
+      <c r="K2" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="L2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="M2" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="N2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="O2" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="P2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="Q2" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="R2" s="32" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -21225,32 +21278,35 @@
       <c r="I3" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="91" t="s">
+        <v>309</v>
+      </c>
+      <c r="K3" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="L3" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="M3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="O3" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="P3" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>42736</v>
       </c>
@@ -21272,14 +21328,15 @@
       <c r="I4" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="P4" t="s">
+      <c r="J4" s="92"/>
+      <c r="Q4" t="s">
         <v>117</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="R4" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>42736</v>
       </c>
@@ -21303,20 +21360,23 @@
       <c r="I5" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="J5" s="30"/>
+      <c r="J5" s="92" t="s">
+        <v>310</v>
+      </c>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="30"/>
+      <c r="Q5" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="R5" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>42736</v>
       </c>
@@ -21340,20 +21400,21 @@
       <c r="I6" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="30"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="30"/>
+      <c r="Q6" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="R6" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>42736</v>
       </c>
@@ -21377,20 +21438,21 @@
       <c r="I7" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="J7" s="30"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="30"/>
+      <c r="Q7" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="R7" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>42736</v>
       </c>
@@ -21414,20 +21476,21 @@
       <c r="I8" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="J8" s="30"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="30"/>
+      <c r="Q8" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="R8" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>42736</v>
       </c>
@@ -21451,20 +21514,21 @@
       <c r="I9" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="J9" s="30"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="30"/>
+      <c r="Q9" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q9" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R9" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>42736</v>
       </c>
@@ -21486,20 +21550,21 @@
       <c r="I10" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="J10" s="30"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="30"/>
+      <c r="Q10" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="R10" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>42736</v>
       </c>
@@ -21523,20 +21588,21 @@
       <c r="I11" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="J11" s="30"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="30"/>
+      <c r="Q11" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q11" s="24" t="s">
+      <c r="R11" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>42736</v>
       </c>
@@ -21560,20 +21626,21 @@
       <c r="I12" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="J12" s="30"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="30"/>
+      <c r="Q12" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="R12" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>42736</v>
       </c>
@@ -21597,20 +21664,21 @@
       <c r="I13" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="J13" s="30"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
-      <c r="P13" s="14" t="s">
+      <c r="P13" s="30"/>
+      <c r="Q13" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="R13" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>42736</v>
       </c>
@@ -21634,20 +21702,21 @@
       <c r="I14" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="J14" s="30"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
-      <c r="P14" s="14" t="s">
+      <c r="P14" s="30"/>
+      <c r="Q14" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q14" s="24" t="s">
+      <c r="R14" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>42736</v>
       </c>
@@ -21671,20 +21740,21 @@
       <c r="I15" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="J15" s="30"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="30"/>
+      <c r="Q15" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q15" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R15" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>42736</v>
       </c>
@@ -21706,14 +21776,15 @@
       <c r="I16" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="J16" s="42"/>
+      <c r="Q16" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="R16" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>42736</v>
       </c>
@@ -21737,14 +21808,15 @@
       <c r="I17" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="J17" s="42"/>
+      <c r="Q17" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q17" s="24" t="s">
+      <c r="R17" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>42736</v>
       </c>
@@ -21768,14 +21840,15 @@
       <c r="I18" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="J18" s="42"/>
+      <c r="Q18" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q18" s="24" t="s">
+      <c r="R18" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>42736</v>
       </c>
@@ -21799,14 +21872,15 @@
       <c r="I19" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="P19" s="14" t="s">
+      <c r="J19" s="42"/>
+      <c r="Q19" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q19" s="24" t="s">
+      <c r="R19" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>42736</v>
       </c>
@@ -21830,14 +21904,15 @@
       <c r="I20" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="P20" s="14" t="s">
+      <c r="J20" s="42"/>
+      <c r="Q20" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q20" s="24" t="s">
+      <c r="R20" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>42736</v>
       </c>
@@ -21861,14 +21936,15 @@
       <c r="I21" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="J21" s="42"/>
+      <c r="Q21" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q21" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R21" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>42736</v>
       </c>
@@ -21890,14 +21966,15 @@
       <c r="I22" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="P22" s="14" t="s">
+      <c r="J22" s="42"/>
+      <c r="Q22" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q22" s="24" t="s">
+      <c r="R22" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>42736</v>
       </c>
@@ -21921,14 +21998,15 @@
       <c r="I23" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="P23" s="14" t="s">
+      <c r="J23" s="42"/>
+      <c r="Q23" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q23" s="24" t="s">
+      <c r="R23" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>42736</v>
       </c>
@@ -21952,14 +22030,15 @@
       <c r="I24" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="P24" s="14" t="s">
+      <c r="J24" s="42"/>
+      <c r="Q24" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q24" s="24" t="s">
+      <c r="R24" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>42736</v>
       </c>
@@ -21983,14 +22062,15 @@
       <c r="I25" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="P25" s="14" t="s">
+      <c r="J25" s="42"/>
+      <c r="Q25" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q25" s="24" t="s">
+      <c r="R25" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>42736</v>
       </c>
@@ -22014,14 +22094,15 @@
       <c r="I26" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="P26" s="14" t="s">
+      <c r="J26" s="42"/>
+      <c r="Q26" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q26" s="24" t="s">
+      <c r="R26" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>42736</v>
       </c>
@@ -22045,14 +22126,15 @@
       <c r="I27" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="P27" s="14" t="s">
+      <c r="J27" s="42"/>
+      <c r="Q27" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q27" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R27" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13">
         <v>42736</v>
       </c>
@@ -22074,14 +22156,15 @@
       <c r="I28" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="P28" s="14" t="s">
+      <c r="J28" s="42"/>
+      <c r="Q28" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q28" s="24" t="s">
+      <c r="R28" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13">
         <v>42736</v>
       </c>
@@ -22105,14 +22188,15 @@
       <c r="I29" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="P29" s="14" t="s">
+      <c r="J29" s="42"/>
+      <c r="Q29" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q29" s="24" t="s">
+      <c r="R29" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13">
         <v>42736</v>
       </c>
@@ -22136,14 +22220,15 @@
       <c r="I30" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="P30" s="14" t="s">
+      <c r="J30" s="42"/>
+      <c r="Q30" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q30" s="24" t="s">
+      <c r="R30" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13">
         <v>42736</v>
       </c>
@@ -22167,14 +22252,15 @@
       <c r="I31" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="P31" s="14" t="s">
+      <c r="J31" s="42"/>
+      <c r="Q31" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q31" s="24" t="s">
+      <c r="R31" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13">
         <v>42736</v>
       </c>
@@ -22198,14 +22284,15 @@
       <c r="I32" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="P32" s="14" t="s">
+      <c r="J32" s="42"/>
+      <c r="Q32" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q32" s="24" t="s">
+      <c r="R32" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13">
         <v>42736</v>
       </c>
@@ -22229,14 +22316,15 @@
       <c r="I33" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="P33" s="14" t="s">
+      <c r="J33" s="42"/>
+      <c r="Q33" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q33" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R33" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="13">
         <v>42736</v>
       </c>
@@ -22258,14 +22346,15 @@
       <c r="I34" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="P34" s="14" t="s">
+      <c r="J34" s="42"/>
+      <c r="Q34" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q34" s="24" t="s">
+      <c r="R34" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="13">
         <v>42736</v>
       </c>
@@ -22289,14 +22378,15 @@
       <c r="I35" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="P35" s="14" t="s">
+      <c r="J35" s="42"/>
+      <c r="Q35" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q35" s="24" t="s">
+      <c r="R35" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="13">
         <v>42736</v>
       </c>
@@ -22320,14 +22410,15 @@
       <c r="I36" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="P36" s="14" t="s">
+      <c r="J36" s="42"/>
+      <c r="Q36" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q36" s="24" t="s">
+      <c r="R36" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="13">
         <v>42736</v>
       </c>
@@ -22351,14 +22442,15 @@
       <c r="I37" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="P37" s="14" t="s">
+      <c r="J37" s="42"/>
+      <c r="Q37" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q37" s="24" t="s">
+      <c r="R37" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="13">
         <v>42736</v>
       </c>
@@ -22382,14 +22474,15 @@
       <c r="I38" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="P38" s="14" t="s">
+      <c r="J38" s="42"/>
+      <c r="Q38" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q38" s="24" t="s">
+      <c r="R38" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13">
         <v>42736</v>
       </c>
@@ -22413,14 +22506,15 @@
       <c r="I39" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="P39" s="14" t="s">
+      <c r="J39" s="42"/>
+      <c r="Q39" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q39" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R39" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13">
         <v>42736</v>
       </c>
@@ -22442,14 +22536,15 @@
       <c r="I40" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="14" t="s">
+      <c r="J40" s="42"/>
+      <c r="Q40" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q40" s="24" t="s">
+      <c r="R40" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13">
         <v>42736</v>
       </c>
@@ -22473,14 +22568,15 @@
       <c r="I41" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="P41" s="14" t="s">
+      <c r="J41" s="42"/>
+      <c r="Q41" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q41" s="24" t="s">
+      <c r="R41" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13">
         <v>42736</v>
       </c>
@@ -22504,14 +22600,15 @@
       <c r="I42" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="P42" s="14" t="s">
+      <c r="J42" s="42"/>
+      <c r="Q42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q42" s="24" t="s">
+      <c r="R42" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13">
         <v>42736</v>
       </c>
@@ -22535,14 +22632,15 @@
       <c r="I43" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="P43" s="14" t="s">
+      <c r="J43" s="42"/>
+      <c r="Q43" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q43" s="24" t="s">
+      <c r="R43" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13">
         <v>42736</v>
       </c>
@@ -22566,14 +22664,15 @@
       <c r="I44" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="P44" s="14" t="s">
+      <c r="J44" s="42"/>
+      <c r="Q44" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q44" s="24" t="s">
+      <c r="R44" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="13">
         <v>42736</v>
       </c>
@@ -22597,14 +22696,15 @@
       <c r="I45" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="P45" s="14" t="s">
+      <c r="J45" s="42"/>
+      <c r="Q45" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q45" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R45" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="13">
         <v>42736</v>
       </c>
@@ -22626,14 +22726,15 @@
       <c r="I46" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="P46" s="14" t="s">
+      <c r="J46" s="42"/>
+      <c r="Q46" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q46" s="24" t="s">
+      <c r="R46" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="13">
         <v>42736</v>
       </c>
@@ -22657,14 +22758,15 @@
       <c r="I47" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="P47" s="14" t="s">
+      <c r="J47" s="42"/>
+      <c r="Q47" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q47" s="24" t="s">
+      <c r="R47" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="13">
         <v>42736</v>
       </c>
@@ -22688,14 +22790,15 @@
       <c r="I48" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="P48" s="14" t="s">
+      <c r="J48" s="42"/>
+      <c r="Q48" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q48" s="24" t="s">
+      <c r="R48" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="13">
         <v>42736</v>
       </c>
@@ -22719,14 +22822,15 @@
       <c r="I49" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="P49" s="14" t="s">
+      <c r="J49" s="42"/>
+      <c r="Q49" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q49" s="24" t="s">
+      <c r="R49" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="13">
         <v>42736</v>
       </c>
@@ -22750,14 +22854,15 @@
       <c r="I50" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="P50" s="14" t="s">
+      <c r="J50" s="42"/>
+      <c r="Q50" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q50" s="24" t="s">
+      <c r="R50" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="13">
         <v>42736</v>
       </c>
@@ -22781,10 +22886,11 @@
       <c r="I51" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="P51" s="14" t="s">
+      <c r="J51" s="42"/>
+      <c r="Q51" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q51" s="24" t="s">
+      <c r="R51" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -22814,7 +22920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O355"/>
   <sheetViews>
-    <sheetView topLeftCell="A303" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C314" sqref="C314:C355"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_CNP_RDM5118.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_CNP_RDM5118.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7247" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7243" uniqueCount="260">
   <si>
     <t>SearchInputFields</t>
   </si>
@@ -3666,7 +3666,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F271"/>
+  <dimension ref="A1:F270"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4877,7 +4877,7 @@
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="E69" t="s">
         <v>130</v>
@@ -4895,7 +4895,7 @@
         <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E70" t="s">
         <v>130</v>
@@ -4913,7 +4913,7 @@
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E71" t="s">
         <v>130</v>
@@ -4931,7 +4931,7 @@
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E72" t="s">
         <v>130</v>
@@ -4949,7 +4949,7 @@
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E73" t="s">
         <v>130</v>
@@ -4967,7 +4967,7 @@
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E74" t="s">
         <v>130</v>
@@ -4982,13 +4982,13 @@
       </c>
       <c r="B75"/>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F75" t="s">
         <v>128</v>
@@ -5003,7 +5003,7 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E76" t="s">
         <v>129</v>
@@ -5021,7 +5021,7 @@
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E77" t="s">
         <v>129</v>
@@ -5039,7 +5039,7 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E78" t="s">
         <v>129</v>
@@ -5057,7 +5057,7 @@
         <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E79" t="s">
         <v>129</v>
@@ -5075,7 +5075,7 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E80" t="s">
         <v>129</v>
@@ -5093,7 +5093,7 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E81" t="s">
         <v>129</v>
@@ -5111,7 +5111,7 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E82" t="s">
         <v>129</v>
@@ -5129,7 +5129,7 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -5147,7 +5147,7 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E84" t="s">
         <v>129</v>
@@ -5165,7 +5165,7 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E85" t="s">
         <v>129</v>
@@ -5183,7 +5183,7 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E86" t="s">
         <v>129</v>
@@ -5201,7 +5201,7 @@
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E87" t="s">
         <v>129</v>
@@ -5219,7 +5219,7 @@
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E88" t="s">
         <v>129</v>
@@ -5237,7 +5237,7 @@
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E89" t="s">
         <v>129</v>
@@ -5255,7 +5255,7 @@
         <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E90" t="s">
         <v>129</v>
@@ -5273,10 +5273,10 @@
         <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F91" t="s">
         <v>128</v>
@@ -5291,7 +5291,7 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E92" t="s">
         <v>130</v>
@@ -5309,7 +5309,7 @@
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E93" t="s">
         <v>130</v>
@@ -5327,7 +5327,7 @@
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -5345,7 +5345,7 @@
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E95" t="s">
         <v>130</v>
@@ -5363,7 +5363,7 @@
         <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E96" t="s">
         <v>130</v>
@@ -5381,7 +5381,7 @@
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E97" t="s">
         <v>130</v>
@@ -5399,7 +5399,7 @@
         <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E98" t="s">
         <v>130</v>
@@ -5417,7 +5417,7 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E99" t="s">
         <v>130</v>
@@ -5435,7 +5435,7 @@
         <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E100" t="s">
         <v>130</v>
@@ -5453,7 +5453,7 @@
         <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E101" t="s">
         <v>130</v>
@@ -5471,7 +5471,7 @@
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E102" t="s">
         <v>130</v>
@@ -5489,7 +5489,7 @@
         <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E103" t="s">
         <v>130</v>
@@ -5507,7 +5507,7 @@
         <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E104" t="s">
         <v>130</v>
@@ -5525,7 +5525,7 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E105" t="s">
         <v>130</v>
@@ -5543,7 +5543,7 @@
         <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E106" t="s">
         <v>130</v>
@@ -5558,13 +5558,13 @@
       </c>
       <c r="B107"/>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F107" t="s">
         <v>128</v>
@@ -5579,7 +5579,7 @@
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E108" t="s">
         <v>129</v>
@@ -5597,7 +5597,7 @@
         <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E109" t="s">
         <v>129</v>
@@ -5615,7 +5615,7 @@
         <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E110" t="s">
         <v>129</v>
@@ -5633,7 +5633,7 @@
         <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E111" t="s">
         <v>129</v>
@@ -5651,7 +5651,7 @@
         <v>12</v>
       </c>
       <c r="D112" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E112" t="s">
         <v>129</v>
@@ -5669,7 +5669,7 @@
         <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E113" t="s">
         <v>129</v>
@@ -5687,7 +5687,7 @@
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E114" t="s">
         <v>129</v>
@@ -5705,7 +5705,7 @@
         <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E115" t="s">
         <v>129</v>
@@ -5723,7 +5723,7 @@
         <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E116" t="s">
         <v>129</v>
@@ -5741,7 +5741,7 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E117" t="s">
         <v>129</v>
@@ -5759,7 +5759,7 @@
         <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E118" t="s">
         <v>129</v>
@@ -5777,7 +5777,7 @@
         <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E119" t="s">
         <v>129</v>
@@ -5795,7 +5795,7 @@
         <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E120" t="s">
         <v>129</v>
@@ -5813,7 +5813,7 @@
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E121" t="s">
         <v>129</v>
@@ -5831,7 +5831,7 @@
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E122" t="s">
         <v>129</v>
@@ -5849,10 +5849,10 @@
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="E123" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F123" t="s">
         <v>128</v>
@@ -5867,7 +5867,7 @@
         <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E124" t="s">
         <v>130</v>
@@ -5885,7 +5885,7 @@
         <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E125" t="s">
         <v>130</v>
@@ -5903,7 +5903,7 @@
         <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E126" t="s">
         <v>130</v>
@@ -5921,7 +5921,7 @@
         <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E127" t="s">
         <v>130</v>
@@ -5939,7 +5939,7 @@
         <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E128" t="s">
         <v>130</v>
@@ -5957,7 +5957,7 @@
         <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E129" t="s">
         <v>130</v>
@@ -5975,7 +5975,7 @@
         <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E130" t="s">
         <v>130</v>
@@ -5993,7 +5993,7 @@
         <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E131" t="s">
         <v>130</v>
@@ -6011,7 +6011,7 @@
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E132" t="s">
         <v>130</v>
@@ -6029,7 +6029,7 @@
         <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E133" t="s">
         <v>130</v>
@@ -6047,7 +6047,7 @@
         <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E134" t="s">
         <v>130</v>
@@ -6065,7 +6065,7 @@
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E135" t="s">
         <v>130</v>
@@ -6083,7 +6083,7 @@
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E136" t="s">
         <v>130</v>
@@ -6101,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E137" t="s">
         <v>130</v>
@@ -6119,7 +6119,7 @@
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E138" t="s">
         <v>130</v>
@@ -6134,13 +6134,13 @@
       </c>
       <c r="B139"/>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D139" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="E139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F139" t="s">
         <v>128</v>
@@ -6155,7 +6155,7 @@
         <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E140" t="s">
         <v>129</v>
@@ -6173,7 +6173,7 @@
         <v>13</v>
       </c>
       <c r="D141" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E141" t="s">
         <v>129</v>
@@ -6191,7 +6191,7 @@
         <v>13</v>
       </c>
       <c r="D142" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E142" t="s">
         <v>129</v>
@@ -6209,7 +6209,7 @@
         <v>13</v>
       </c>
       <c r="D143" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E143" t="s">
         <v>129</v>
@@ -6227,7 +6227,7 @@
         <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E144" t="s">
         <v>129</v>
@@ -6245,7 +6245,7 @@
         <v>13</v>
       </c>
       <c r="D145" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E145" t="s">
         <v>129</v>
@@ -6263,7 +6263,7 @@
         <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E146" t="s">
         <v>129</v>
@@ -6281,7 +6281,7 @@
         <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E147" t="s">
         <v>129</v>
@@ -6299,7 +6299,7 @@
         <v>13</v>
       </c>
       <c r="D148" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E148" t="s">
         <v>129</v>
@@ -6317,7 +6317,7 @@
         <v>13</v>
       </c>
       <c r="D149" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E149" t="s">
         <v>129</v>
@@ -6335,7 +6335,7 @@
         <v>13</v>
       </c>
       <c r="D150" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E150" t="s">
         <v>129</v>
@@ -6353,7 +6353,7 @@
         <v>13</v>
       </c>
       <c r="D151" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E151" t="s">
         <v>129</v>
@@ -6371,7 +6371,7 @@
         <v>13</v>
       </c>
       <c r="D152" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E152" t="s">
         <v>129</v>
@@ -6389,7 +6389,7 @@
         <v>13</v>
       </c>
       <c r="D153" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E153" t="s">
         <v>129</v>
@@ -6407,7 +6407,7 @@
         <v>13</v>
       </c>
       <c r="D154" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E154" t="s">
         <v>129</v>
@@ -6425,7 +6425,7 @@
         <v>13</v>
       </c>
       <c r="D155" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E155" t="s">
         <v>129</v>
@@ -6443,10 +6443,10 @@
         <v>13</v>
       </c>
       <c r="D156" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="E156" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F156" t="s">
         <v>128</v>
@@ -6461,7 +6461,7 @@
         <v>13</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E157" t="s">
         <v>130</v>
@@ -6479,7 +6479,7 @@
         <v>13</v>
       </c>
       <c r="D158" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E158" t="s">
         <v>130</v>
@@ -6497,7 +6497,7 @@
         <v>13</v>
       </c>
       <c r="D159" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E159" t="s">
         <v>130</v>
@@ -6515,7 +6515,7 @@
         <v>13</v>
       </c>
       <c r="D160" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E160" t="s">
         <v>130</v>
@@ -6533,7 +6533,7 @@
         <v>13</v>
       </c>
       <c r="D161" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E161" t="s">
         <v>130</v>
@@ -6551,7 +6551,7 @@
         <v>13</v>
       </c>
       <c r="D162" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E162" t="s">
         <v>130</v>
@@ -6569,7 +6569,7 @@
         <v>13</v>
       </c>
       <c r="D163" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E163" t="s">
         <v>130</v>
@@ -6587,7 +6587,7 @@
         <v>13</v>
       </c>
       <c r="D164" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E164" t="s">
         <v>130</v>
@@ -6605,7 +6605,7 @@
         <v>13</v>
       </c>
       <c r="D165" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E165" t="s">
         <v>130</v>
@@ -6623,7 +6623,7 @@
         <v>13</v>
       </c>
       <c r="D166" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E166" t="s">
         <v>130</v>
@@ -6641,7 +6641,7 @@
         <v>13</v>
       </c>
       <c r="D167" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E167" t="s">
         <v>130</v>
@@ -6659,7 +6659,7 @@
         <v>13</v>
       </c>
       <c r="D168" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E168" t="s">
         <v>130</v>
@@ -6677,7 +6677,7 @@
         <v>13</v>
       </c>
       <c r="D169" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E169" t="s">
         <v>130</v>
@@ -6695,7 +6695,7 @@
         <v>13</v>
       </c>
       <c r="D170" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E170" t="s">
         <v>130</v>
@@ -6713,7 +6713,7 @@
         <v>13</v>
       </c>
       <c r="D171" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E171" t="s">
         <v>130</v>
@@ -6731,7 +6731,7 @@
         <v>13</v>
       </c>
       <c r="D172" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E172" t="s">
         <v>130</v>
@@ -6746,13 +6746,13 @@
       </c>
       <c r="B173"/>
       <c r="C173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D173" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="E173" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F173" t="s">
         <v>128</v>
@@ -6767,7 +6767,7 @@
         <v>14</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E174" t="s">
         <v>129</v>
@@ -6785,7 +6785,7 @@
         <v>14</v>
       </c>
       <c r="D175" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E175" t="s">
         <v>129</v>
@@ -6803,7 +6803,7 @@
         <v>14</v>
       </c>
       <c r="D176" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E176" t="s">
         <v>129</v>
@@ -6821,7 +6821,7 @@
         <v>14</v>
       </c>
       <c r="D177" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E177" t="s">
         <v>129</v>
@@ -6839,7 +6839,7 @@
         <v>14</v>
       </c>
       <c r="D178" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E178" t="s">
         <v>129</v>
@@ -6857,7 +6857,7 @@
         <v>14</v>
       </c>
       <c r="D179" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E179" t="s">
         <v>129</v>
@@ -6875,7 +6875,7 @@
         <v>14</v>
       </c>
       <c r="D180" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E180" t="s">
         <v>129</v>
@@ -6893,7 +6893,7 @@
         <v>14</v>
       </c>
       <c r="D181" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E181" t="s">
         <v>129</v>
@@ -6911,7 +6911,7 @@
         <v>14</v>
       </c>
       <c r="D182" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E182" t="s">
         <v>129</v>
@@ -6929,7 +6929,7 @@
         <v>14</v>
       </c>
       <c r="D183" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E183" t="s">
         <v>129</v>
@@ -6947,7 +6947,7 @@
         <v>14</v>
       </c>
       <c r="D184" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E184" t="s">
         <v>129</v>
@@ -6965,7 +6965,7 @@
         <v>14</v>
       </c>
       <c r="D185" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E185" t="s">
         <v>129</v>
@@ -6983,7 +6983,7 @@
         <v>14</v>
       </c>
       <c r="D186" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E186" t="s">
         <v>129</v>
@@ -7001,7 +7001,7 @@
         <v>14</v>
       </c>
       <c r="D187" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E187" t="s">
         <v>129</v>
@@ -7019,7 +7019,7 @@
         <v>14</v>
       </c>
       <c r="D188" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E188" t="s">
         <v>129</v>
@@ -7037,10 +7037,10 @@
         <v>14</v>
       </c>
       <c r="D189" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="E189" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F189" t="s">
         <v>128</v>
@@ -7055,7 +7055,7 @@
         <v>14</v>
       </c>
       <c r="D190" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E190" t="s">
         <v>130</v>
@@ -7073,7 +7073,7 @@
         <v>14</v>
       </c>
       <c r="D191" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E191" t="s">
         <v>130</v>
@@ -7091,7 +7091,7 @@
         <v>14</v>
       </c>
       <c r="D192" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E192" t="s">
         <v>130</v>
@@ -7109,7 +7109,7 @@
         <v>14</v>
       </c>
       <c r="D193" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E193" t="s">
         <v>130</v>
@@ -7127,7 +7127,7 @@
         <v>14</v>
       </c>
       <c r="D194" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E194" t="s">
         <v>130</v>
@@ -7145,7 +7145,7 @@
         <v>14</v>
       </c>
       <c r="D195" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E195" t="s">
         <v>130</v>
@@ -7163,7 +7163,7 @@
         <v>14</v>
       </c>
       <c r="D196" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E196" t="s">
         <v>130</v>
@@ -7181,7 +7181,7 @@
         <v>14</v>
       </c>
       <c r="D197" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E197" t="s">
         <v>130</v>
@@ -7199,7 +7199,7 @@
         <v>14</v>
       </c>
       <c r="D198" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E198" t="s">
         <v>130</v>
@@ -7217,7 +7217,7 @@
         <v>14</v>
       </c>
       <c r="D199" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E199" t="s">
         <v>130</v>
@@ -7235,7 +7235,7 @@
         <v>14</v>
       </c>
       <c r="D200" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E200" t="s">
         <v>130</v>
@@ -7253,7 +7253,7 @@
         <v>14</v>
       </c>
       <c r="D201" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E201" t="s">
         <v>130</v>
@@ -7271,7 +7271,7 @@
         <v>14</v>
       </c>
       <c r="D202" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E202" t="s">
         <v>130</v>
@@ -7289,7 +7289,7 @@
         <v>14</v>
       </c>
       <c r="D203" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E203" t="s">
         <v>130</v>
@@ -7307,7 +7307,7 @@
         <v>14</v>
       </c>
       <c r="D204" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E204" t="s">
         <v>130</v>
@@ -7322,13 +7322,13 @@
       </c>
       <c r="B205"/>
       <c r="C205" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D205" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="E205" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F205" t="s">
         <v>128</v>
@@ -7343,7 +7343,7 @@
         <v>15</v>
       </c>
       <c r="D206" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E206" t="s">
         <v>129</v>
@@ -7361,7 +7361,7 @@
         <v>15</v>
       </c>
       <c r="D207" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E207" t="s">
         <v>129</v>
@@ -7379,7 +7379,7 @@
         <v>15</v>
       </c>
       <c r="D208" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E208" t="s">
         <v>129</v>
@@ -7397,7 +7397,7 @@
         <v>15</v>
       </c>
       <c r="D209" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E209" t="s">
         <v>129</v>
@@ -7415,7 +7415,7 @@
         <v>15</v>
       </c>
       <c r="D210" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E210" t="s">
         <v>129</v>
@@ -7433,7 +7433,7 @@
         <v>15</v>
       </c>
       <c r="D211" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E211" t="s">
         <v>129</v>
@@ -7451,7 +7451,7 @@
         <v>15</v>
       </c>
       <c r="D212" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E212" t="s">
         <v>129</v>
@@ -7469,7 +7469,7 @@
         <v>15</v>
       </c>
       <c r="D213" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E213" t="s">
         <v>129</v>
@@ -7487,7 +7487,7 @@
         <v>15</v>
       </c>
       <c r="D214" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E214" t="s">
         <v>129</v>
@@ -7505,7 +7505,7 @@
         <v>15</v>
       </c>
       <c r="D215" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E215" t="s">
         <v>129</v>
@@ -7523,7 +7523,7 @@
         <v>15</v>
       </c>
       <c r="D216" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E216" t="s">
         <v>129</v>
@@ -7541,7 +7541,7 @@
         <v>15</v>
       </c>
       <c r="D217" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E217" t="s">
         <v>129</v>
@@ -7559,7 +7559,7 @@
         <v>15</v>
       </c>
       <c r="D218" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E218" t="s">
         <v>129</v>
@@ -7577,7 +7577,7 @@
         <v>15</v>
       </c>
       <c r="D219" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E219" t="s">
         <v>129</v>
@@ -7595,7 +7595,7 @@
         <v>15</v>
       </c>
       <c r="D220" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E220" t="s">
         <v>129</v>
@@ -7613,7 +7613,7 @@
         <v>15</v>
       </c>
       <c r="D221" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E221" t="s">
         <v>129</v>
@@ -7631,10 +7631,10 @@
         <v>15</v>
       </c>
       <c r="D222" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="E222" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F222" t="s">
         <v>128</v>
@@ -7649,7 +7649,7 @@
         <v>15</v>
       </c>
       <c r="D223" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E223" t="s">
         <v>130</v>
@@ -7667,7 +7667,7 @@
         <v>15</v>
       </c>
       <c r="D224" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E224" t="s">
         <v>130</v>
@@ -7685,7 +7685,7 @@
         <v>15</v>
       </c>
       <c r="D225" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E225" t="s">
         <v>130</v>
@@ -7703,7 +7703,7 @@
         <v>15</v>
       </c>
       <c r="D226" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E226" t="s">
         <v>130</v>
@@ -7721,7 +7721,7 @@
         <v>15</v>
       </c>
       <c r="D227" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E227" t="s">
         <v>130</v>
@@ -7739,7 +7739,7 @@
         <v>15</v>
       </c>
       <c r="D228" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E228" t="s">
         <v>130</v>
@@ -7757,7 +7757,7 @@
         <v>15</v>
       </c>
       <c r="D229" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E229" t="s">
         <v>130</v>
@@ -7775,7 +7775,7 @@
         <v>15</v>
       </c>
       <c r="D230" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E230" t="s">
         <v>130</v>
@@ -7793,7 +7793,7 @@
         <v>15</v>
       </c>
       <c r="D231" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E231" t="s">
         <v>130</v>
@@ -7811,7 +7811,7 @@
         <v>15</v>
       </c>
       <c r="D232" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E232" t="s">
         <v>130</v>
@@ -7829,7 +7829,7 @@
         <v>15</v>
       </c>
       <c r="D233" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E233" t="s">
         <v>130</v>
@@ -7847,7 +7847,7 @@
         <v>15</v>
       </c>
       <c r="D234" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E234" t="s">
         <v>130</v>
@@ -7865,7 +7865,7 @@
         <v>15</v>
       </c>
       <c r="D235" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E235" t="s">
         <v>130</v>
@@ -7883,7 +7883,7 @@
         <v>15</v>
       </c>
       <c r="D236" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E236" t="s">
         <v>130</v>
@@ -7901,7 +7901,7 @@
         <v>15</v>
       </c>
       <c r="D237" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E237" t="s">
         <v>130</v>
@@ -7919,7 +7919,7 @@
         <v>15</v>
       </c>
       <c r="D238" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E238" t="s">
         <v>130</v>
@@ -7934,13 +7934,13 @@
       </c>
       <c r="B239"/>
       <c r="C239" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D239" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="E239" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F239" t="s">
         <v>128</v>
@@ -7955,7 +7955,7 @@
         <v>16</v>
       </c>
       <c r="D240" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E240" t="s">
         <v>129</v>
@@ -7973,7 +7973,7 @@
         <v>16</v>
       </c>
       <c r="D241" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E241" t="s">
         <v>129</v>
@@ -7991,7 +7991,7 @@
         <v>16</v>
       </c>
       <c r="D242" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E242" t="s">
         <v>129</v>
@@ -8009,7 +8009,7 @@
         <v>16</v>
       </c>
       <c r="D243" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E243" t="s">
         <v>129</v>
@@ -8027,7 +8027,7 @@
         <v>16</v>
       </c>
       <c r="D244" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E244" t="s">
         <v>129</v>
@@ -8045,7 +8045,7 @@
         <v>16</v>
       </c>
       <c r="D245" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E245" t="s">
         <v>129</v>
@@ -8063,7 +8063,7 @@
         <v>16</v>
       </c>
       <c r="D246" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E246" t="s">
         <v>129</v>
@@ -8081,7 +8081,7 @@
         <v>16</v>
       </c>
       <c r="D247" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E247" t="s">
         <v>129</v>
@@ -8099,7 +8099,7 @@
         <v>16</v>
       </c>
       <c r="D248" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E248" t="s">
         <v>129</v>
@@ -8117,7 +8117,7 @@
         <v>16</v>
       </c>
       <c r="D249" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E249" t="s">
         <v>129</v>
@@ -8135,7 +8135,7 @@
         <v>16</v>
       </c>
       <c r="D250" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E250" t="s">
         <v>129</v>
@@ -8153,7 +8153,7 @@
         <v>16</v>
       </c>
       <c r="D251" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E251" t="s">
         <v>129</v>
@@ -8171,7 +8171,7 @@
         <v>16</v>
       </c>
       <c r="D252" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E252" t="s">
         <v>129</v>
@@ -8189,7 +8189,7 @@
         <v>16</v>
       </c>
       <c r="D253" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E253" t="s">
         <v>129</v>
@@ -8207,7 +8207,7 @@
         <v>16</v>
       </c>
       <c r="D254" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E254" t="s">
         <v>129</v>
@@ -8225,10 +8225,10 @@
         <v>16</v>
       </c>
       <c r="D255" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="E255" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F255" t="s">
         <v>128</v>
@@ -8243,7 +8243,7 @@
         <v>16</v>
       </c>
       <c r="D256" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E256" t="s">
         <v>130</v>
@@ -8261,7 +8261,7 @@
         <v>16</v>
       </c>
       <c r="D257" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E257" t="s">
         <v>130</v>
@@ -8279,7 +8279,7 @@
         <v>16</v>
       </c>
       <c r="D258" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E258" t="s">
         <v>130</v>
@@ -8297,7 +8297,7 @@
         <v>16</v>
       </c>
       <c r="D259" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E259" t="s">
         <v>130</v>
@@ -8315,7 +8315,7 @@
         <v>16</v>
       </c>
       <c r="D260" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E260" t="s">
         <v>130</v>
@@ -8333,7 +8333,7 @@
         <v>16</v>
       </c>
       <c r="D261" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E261" t="s">
         <v>130</v>
@@ -8351,7 +8351,7 @@
         <v>16</v>
       </c>
       <c r="D262" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E262" t="s">
         <v>130</v>
@@ -8369,7 +8369,7 @@
         <v>16</v>
       </c>
       <c r="D263" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E263" t="s">
         <v>130</v>
@@ -8387,7 +8387,7 @@
         <v>16</v>
       </c>
       <c r="D264" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E264" t="s">
         <v>130</v>
@@ -8405,7 +8405,7 @@
         <v>16</v>
       </c>
       <c r="D265" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E265" t="s">
         <v>130</v>
@@ -8423,7 +8423,7 @@
         <v>16</v>
       </c>
       <c r="D266" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E266" t="s">
         <v>130</v>
@@ -8441,7 +8441,7 @@
         <v>16</v>
       </c>
       <c r="D267" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E267" t="s">
         <v>130</v>
@@ -8459,7 +8459,7 @@
         <v>16</v>
       </c>
       <c r="D268" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E268" t="s">
         <v>130</v>
@@ -8477,7 +8477,7 @@
         <v>16</v>
       </c>
       <c r="D269" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E269" t="s">
         <v>130</v>
@@ -8495,30 +8495,12 @@
         <v>16</v>
       </c>
       <c r="D270" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E270" t="s">
         <v>130</v>
       </c>
       <c r="F270" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n" s="25">
-        <v>42736.0</v>
-      </c>
-      <c r="B271"/>
-      <c r="C271" t="s">
-        <v>16</v>
-      </c>
-      <c r="D271" t="s">
-        <v>104</v>
-      </c>
-      <c r="E271" t="s">
-        <v>130</v>
-      </c>
-      <c r="F271" t="s">
         <v>128</v>
       </c>
     </row>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_CNP_RDM5118.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_CNP_RDM5118.xlsx
@@ -24675,7 +24675,7 @@
         <v>93</v>
       </c>
       <c r="G37" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H37"/>
       <c r="I37" t="s">

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_CNP_RDM5118.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_CNP_RDM5118.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7276" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7281" uniqueCount="265">
   <si>
     <t>SearchInputFields</t>
   </si>
@@ -28186,7 +28186,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28479,13 +28479,13 @@
       </c>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F16" t="s">
         <v>134</v>
@@ -28506,7 +28506,7 @@
         <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
         <v>134</v>
@@ -28527,7 +28527,7 @@
         <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
         <v>134</v>
@@ -28548,10 +28548,10 @@
         <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G19" t="s">
         <v>133</v>
@@ -28569,7 +28569,7 @@
         <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
         <v>135</v>
@@ -28590,7 +28590,7 @@
         <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
         <v>135</v>
@@ -28605,16 +28605,16 @@
       </c>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
         <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
         <v>133</v>
@@ -28632,7 +28632,7 @@
         <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
         <v>134</v>
@@ -28653,7 +28653,7 @@
         <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
         <v>134</v>
@@ -28674,10 +28674,10 @@
         <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G25" t="s">
         <v>133</v>
@@ -28695,7 +28695,7 @@
         <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F26" t="s">
         <v>135</v>
@@ -28716,7 +28716,7 @@
         <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F27" t="s">
         <v>135</v>
@@ -28731,16 +28731,16 @@
       </c>
       <c r="B28"/>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
         <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G28" t="s">
         <v>133</v>
@@ -28758,7 +28758,7 @@
         <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F29" t="s">
         <v>134</v>
@@ -28779,7 +28779,7 @@
         <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
         <v>134</v>
@@ -28800,10 +28800,10 @@
         <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G31" t="s">
         <v>133</v>
@@ -28821,7 +28821,7 @@
         <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
         <v>135</v>
@@ -28842,7 +28842,7 @@
         <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
         <v>135</v>
@@ -28857,16 +28857,16 @@
       </c>
       <c r="B34"/>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
         <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G34" t="s">
         <v>133</v>
@@ -28884,7 +28884,7 @@
         <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
         <v>134</v>
@@ -28905,7 +28905,7 @@
         <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
         <v>134</v>
@@ -28926,10 +28926,10 @@
         <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G37" t="s">
         <v>133</v>
@@ -28947,7 +28947,7 @@
         <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F38" t="s">
         <v>135</v>
@@ -28968,7 +28968,7 @@
         <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F39" t="s">
         <v>135</v>
@@ -28983,16 +28983,16 @@
       </c>
       <c r="B40"/>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
         <v>87</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G40" t="s">
         <v>133</v>
@@ -29010,7 +29010,7 @@
         <v>87</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F41" t="s">
         <v>134</v>
@@ -29031,7 +29031,7 @@
         <v>87</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F42" t="s">
         <v>134</v>
@@ -29052,10 +29052,10 @@
         <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G43" t="s">
         <v>133</v>
@@ -29073,7 +29073,7 @@
         <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F44" t="s">
         <v>135</v>
@@ -29094,7 +29094,7 @@
         <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F45" t="s">
         <v>135</v>
@@ -29109,16 +29109,16 @@
       </c>
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
         <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G46" t="s">
         <v>133</v>
@@ -29136,7 +29136,7 @@
         <v>87</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F47" t="s">
         <v>134</v>
@@ -29157,7 +29157,7 @@
         <v>87</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F48" t="s">
         <v>134</v>
@@ -29178,10 +29178,10 @@
         <v>87</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G49" t="s">
         <v>133</v>
@@ -29199,7 +29199,7 @@
         <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F50" t="s">
         <v>135</v>
@@ -29220,12 +29220,33 @@
         <v>87</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F51" t="s">
         <v>135</v>
       </c>
       <c r="G51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="6">
+        <v>42736.0</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" t="s">
         <v>133</v>
       </c>
     </row>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_CNP_RDM5118.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_CNP_RDM5118.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7291" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7291" uniqueCount="267">
   <si>
     <t>SearchInputFields</t>
   </si>
@@ -443,7 +443,7 @@
     <t>UD</t>
   </si>
   <si>
-    <t>CU</t>
+    <t>CD</t>
   </si>
   <si>
     <t>AuthorisationCaseState</t>
@@ -686,6 +686,9 @@
     <t>AuthorisationCaseField</t>
   </si>
   <si>
+    <t>CU</t>
+  </si>
+  <si>
     <t>CUD</t>
   </si>
   <si>
@@ -4559,7 +4562,7 @@
         <v>134</v>
       </c>
       <c r="F50" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51">
@@ -4595,7 +4598,7 @@
         <v>134</v>
       </c>
       <c r="F52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53">
@@ -8573,7 +8576,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2"/>
@@ -8594,34 +8597,34 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M3" t="s">
         <v>116</v>
       </c>
       <c r="N3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4">
@@ -8646,13 +8649,13 @@
         <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L4" t="n">
         <v>1.0</v>
@@ -8685,13 +8688,13 @@
         <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L5" t="n">
         <v>1.0</v>
@@ -8724,13 +8727,13 @@
         <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L6" t="n">
         <v>1.0</v>
@@ -8763,13 +8766,13 @@
         <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L7" t="n">
         <v>1.0</v>
@@ -8802,13 +8805,13 @@
         <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L8" t="n">
         <v>1.0</v>
@@ -8841,13 +8844,13 @@
         <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L9" t="n">
         <v>2.0</v>
@@ -8880,13 +8883,13 @@
         <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L10" t="n">
         <v>2.0</v>
@@ -8919,13 +8922,13 @@
         <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L11" t="n">
         <v>2.0</v>
@@ -8958,13 +8961,13 @@
         <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L12" t="n">
         <v>2.0</v>
@@ -8997,13 +9000,13 @@
         <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L13" t="n">
         <v>2.0</v>
@@ -9036,13 +9039,13 @@
         <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L14" t="n">
         <v>2.0</v>
@@ -9075,13 +9078,13 @@
         <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L15" t="n">
         <v>2.0</v>
@@ -9114,13 +9117,13 @@
         <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L16" t="n">
         <v>3.0</v>
@@ -9153,13 +9156,13 @@
         <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L17" t="n">
         <v>3.0</v>
@@ -9192,13 +9195,13 @@
         <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L18" t="n">
         <v>3.0</v>
@@ -9231,13 +9234,13 @@
         <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L19" t="n">
         <v>3.0</v>
@@ -9270,13 +9273,13 @@
         <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L20" t="n">
         <v>1.0</v>
@@ -9309,13 +9312,13 @@
         <v>39</v>
       </c>
       <c r="I21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L21" t="n">
         <v>1.0</v>
@@ -9348,13 +9351,13 @@
         <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L22" t="n">
         <v>1.0</v>
@@ -9387,13 +9390,13 @@
         <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L23" t="n">
         <v>1.0</v>
@@ -9426,13 +9429,13 @@
         <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L24" t="n">
         <v>1.0</v>
@@ -9465,13 +9468,13 @@
         <v>39</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L25" t="n">
         <v>2.0</v>
@@ -9504,13 +9507,13 @@
         <v>39</v>
       </c>
       <c r="I26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L26" t="n">
         <v>2.0</v>
@@ -9543,13 +9546,13 @@
         <v>39</v>
       </c>
       <c r="I27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L27" t="n">
         <v>2.0</v>
@@ -9582,13 +9585,13 @@
         <v>39</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L28" t="n">
         <v>2.0</v>
@@ -9621,13 +9624,13 @@
         <v>39</v>
       </c>
       <c r="I29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L29" t="n">
         <v>2.0</v>
@@ -9660,13 +9663,13 @@
         <v>39</v>
       </c>
       <c r="I30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L30" t="n">
         <v>2.0</v>
@@ -9699,13 +9702,13 @@
         <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L31" t="n">
         <v>3.0</v>
@@ -9738,13 +9741,13 @@
         <v>39</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L32" t="n">
         <v>3.0</v>
@@ -9777,13 +9780,13 @@
         <v>39</v>
       </c>
       <c r="I33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L33" t="n">
         <v>3.0</v>
@@ -9816,13 +9819,13 @@
         <v>39</v>
       </c>
       <c r="I34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L34" t="n">
         <v>3.0</v>
@@ -9855,13 +9858,13 @@
         <v>205</v>
       </c>
       <c r="I35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L35" t="n">
         <v>1.0</v>
@@ -9894,13 +9897,13 @@
         <v>205</v>
       </c>
       <c r="I36" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L36" t="n">
         <v>1.0</v>
@@ -9933,13 +9936,13 @@
         <v>205</v>
       </c>
       <c r="I37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L37" t="n">
         <v>1.0</v>
@@ -9972,13 +9975,13 @@
         <v>205</v>
       </c>
       <c r="I38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L38" t="n">
         <v>1.0</v>
@@ -10011,13 +10014,13 @@
         <v>205</v>
       </c>
       <c r="I39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L39" t="n">
         <v>1.0</v>
@@ -10050,13 +10053,13 @@
         <v>205</v>
       </c>
       <c r="I40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L40" t="n">
         <v>2.0</v>
@@ -10089,13 +10092,13 @@
         <v>205</v>
       </c>
       <c r="I41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L41" t="n">
         <v>2.0</v>
@@ -10128,13 +10131,13 @@
         <v>205</v>
       </c>
       <c r="I42" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J42" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K42" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L42" t="n">
         <v>2.0</v>
@@ -10167,13 +10170,13 @@
         <v>205</v>
       </c>
       <c r="I43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L43" t="n">
         <v>2.0</v>
@@ -10206,13 +10209,13 @@
         <v>205</v>
       </c>
       <c r="I44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J44" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L44" t="n">
         <v>2.0</v>
@@ -10245,13 +10248,13 @@
         <v>205</v>
       </c>
       <c r="I45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J45" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L45" t="n">
         <v>2.0</v>
@@ -10284,13 +10287,13 @@
         <v>205</v>
       </c>
       <c r="I46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L46" t="n">
         <v>3.0</v>
@@ -10323,13 +10326,13 @@
         <v>205</v>
       </c>
       <c r="I47" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L47" t="n">
         <v>3.0</v>
@@ -10362,13 +10365,13 @@
         <v>205</v>
       </c>
       <c r="I48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L48" t="n">
         <v>3.0</v>
@@ -10401,13 +10404,13 @@
         <v>39</v>
       </c>
       <c r="I49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J49" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L49" t="n">
         <v>1.0</v>
@@ -10440,13 +10443,13 @@
         <v>39</v>
       </c>
       <c r="I50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J50" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L50" t="n">
         <v>1.0</v>
@@ -10479,13 +10482,13 @@
         <v>39</v>
       </c>
       <c r="I51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J51" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K51" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L51" t="n">
         <v>1.0</v>
@@ -10518,13 +10521,13 @@
         <v>39</v>
       </c>
       <c r="I52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L52" t="n">
         <v>1.0</v>
@@ -10557,13 +10560,13 @@
         <v>39</v>
       </c>
       <c r="I53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J53" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L53" t="n">
         <v>1.0</v>
@@ -10596,13 +10599,13 @@
         <v>39</v>
       </c>
       <c r="I54" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K54" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L54" t="n">
         <v>2.0</v>
@@ -10635,13 +10638,13 @@
         <v>39</v>
       </c>
       <c r="I55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J55" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L55" t="n">
         <v>2.0</v>
@@ -10674,13 +10677,13 @@
         <v>39</v>
       </c>
       <c r="I56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J56" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L56" t="n">
         <v>2.0</v>
@@ -10713,13 +10716,13 @@
         <v>39</v>
       </c>
       <c r="I57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L57" t="n">
         <v>2.0</v>
@@ -10752,13 +10755,13 @@
         <v>39</v>
       </c>
       <c r="I58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K58" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L58" t="n">
         <v>2.0</v>
@@ -10791,13 +10794,13 @@
         <v>39</v>
       </c>
       <c r="I59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L59" t="n">
         <v>2.0</v>
@@ -10830,13 +10833,13 @@
         <v>39</v>
       </c>
       <c r="I60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J60" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L60" t="n">
         <v>2.0</v>
@@ -10869,13 +10872,13 @@
         <v>39</v>
       </c>
       <c r="I61" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J61" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K61" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L61" t="n">
         <v>3.0</v>
@@ -10908,13 +10911,13 @@
         <v>39</v>
       </c>
       <c r="I62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J62" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L62" t="n">
         <v>3.0</v>
@@ -10947,13 +10950,13 @@
         <v>39</v>
       </c>
       <c r="I63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J63" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K63" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L63" t="n">
         <v>3.0</v>
@@ -10986,13 +10989,13 @@
         <v>39</v>
       </c>
       <c r="I64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K64" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L64" t="n">
         <v>3.0</v>
@@ -11025,13 +11028,13 @@
         <v>39</v>
       </c>
       <c r="I65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J65" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L65" t="n">
         <v>3.0</v>
@@ -11064,13 +11067,13 @@
         <v>39</v>
       </c>
       <c r="I66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L66" t="n">
         <v>1.0</v>
@@ -11103,13 +11106,13 @@
         <v>39</v>
       </c>
       <c r="I67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J67" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L67" t="n">
         <v>1.0</v>
@@ -11142,13 +11145,13 @@
         <v>39</v>
       </c>
       <c r="I68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L68" t="n">
         <v>1.0</v>
@@ -11181,13 +11184,13 @@
         <v>39</v>
       </c>
       <c r="I69" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L69" t="n">
         <v>1.0</v>
@@ -11220,13 +11223,13 @@
         <v>39</v>
       </c>
       <c r="I70" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L70" t="n">
         <v>1.0</v>
@@ -11259,13 +11262,13 @@
         <v>39</v>
       </c>
       <c r="I71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L71" t="n">
         <v>2.0</v>
@@ -11298,13 +11301,13 @@
         <v>39</v>
       </c>
       <c r="I72" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J72" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L72" t="n">
         <v>2.0</v>
@@ -11337,13 +11340,13 @@
         <v>39</v>
       </c>
       <c r="I73" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J73" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L73" t="n">
         <v>2.0</v>
@@ -11376,13 +11379,13 @@
         <v>39</v>
       </c>
       <c r="I74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L74" t="n">
         <v>2.0</v>
@@ -11415,13 +11418,13 @@
         <v>39</v>
       </c>
       <c r="I75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L75" t="n">
         <v>2.0</v>
@@ -11454,13 +11457,13 @@
         <v>39</v>
       </c>
       <c r="I76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L76" t="n">
         <v>2.0</v>
@@ -11493,13 +11496,13 @@
         <v>39</v>
       </c>
       <c r="I77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L77" t="n">
         <v>3.0</v>
@@ -11532,13 +11535,13 @@
         <v>39</v>
       </c>
       <c r="I78" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K78" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L78" t="n">
         <v>3.0</v>
@@ -11571,13 +11574,13 @@
         <v>39</v>
       </c>
       <c r="I79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L79" t="n">
         <v>3.0</v>
@@ -11610,13 +11613,13 @@
         <v>39</v>
       </c>
       <c r="I80" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L80" t="n">
         <v>3.0</v>
@@ -11649,13 +11652,13 @@
         <v>39</v>
       </c>
       <c r="I81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J81" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L81" t="n">
         <v>3.0</v>
@@ -11688,13 +11691,13 @@
         <v>205</v>
       </c>
       <c r="I82" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J82" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K82" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L82" t="n">
         <v>1.0</v>
@@ -11727,13 +11730,13 @@
         <v>205</v>
       </c>
       <c r="I83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J83" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L83" t="n">
         <v>1.0</v>
@@ -11766,13 +11769,13 @@
         <v>205</v>
       </c>
       <c r="I84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K84" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L84" t="n">
         <v>1.0</v>
@@ -11805,13 +11808,13 @@
         <v>205</v>
       </c>
       <c r="I85" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J85" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K85" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L85" t="n">
         <v>1.0</v>
@@ -11844,13 +11847,13 @@
         <v>205</v>
       </c>
       <c r="I86" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J86" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K86" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L86" t="n">
         <v>1.0</v>
@@ -11883,13 +11886,13 @@
         <v>205</v>
       </c>
       <c r="I87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K87" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L87" t="n">
         <v>2.0</v>
@@ -11922,13 +11925,13 @@
         <v>205</v>
       </c>
       <c r="I88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K88" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L88" t="n">
         <v>2.0</v>
@@ -11961,13 +11964,13 @@
         <v>205</v>
       </c>
       <c r="I89" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J89" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L89" t="n">
         <v>2.0</v>
@@ -12000,13 +12003,13 @@
         <v>205</v>
       </c>
       <c r="I90" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J90" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K90" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L90" t="n">
         <v>2.0</v>
@@ -12039,13 +12042,13 @@
         <v>205</v>
       </c>
       <c r="I91" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L91" t="n">
         <v>2.0</v>
@@ -12078,13 +12081,13 @@
         <v>205</v>
       </c>
       <c r="I92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J92" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L92" t="n">
         <v>2.0</v>
@@ -12117,13 +12120,13 @@
         <v>205</v>
       </c>
       <c r="I93" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J93" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K93" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L93" t="n">
         <v>3.0</v>
@@ -12156,13 +12159,13 @@
         <v>205</v>
       </c>
       <c r="I94" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J94" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L94" t="n">
         <v>3.0</v>
@@ -12195,13 +12198,13 @@
         <v>205</v>
       </c>
       <c r="I95" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L95" t="n">
         <v>3.0</v>
@@ -12234,13 +12237,13 @@
         <v>39</v>
       </c>
       <c r="I96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K96" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L96" t="n">
         <v>1.0</v>
@@ -12273,13 +12276,13 @@
         <v>39</v>
       </c>
       <c r="I97" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J97" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L97" t="n">
         <v>1.0</v>
@@ -12312,13 +12315,13 @@
         <v>39</v>
       </c>
       <c r="I98" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K98" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L98" t="n">
         <v>1.0</v>
@@ -12351,13 +12354,13 @@
         <v>39</v>
       </c>
       <c r="I99" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J99" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K99" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L99" t="n">
         <v>1.0</v>
@@ -12390,13 +12393,13 @@
         <v>39</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J100" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K100" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L100" t="n">
         <v>1.0</v>
@@ -12429,13 +12432,13 @@
         <v>39</v>
       </c>
       <c r="I101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J101" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L101" t="n">
         <v>2.0</v>
@@ -12468,13 +12471,13 @@
         <v>39</v>
       </c>
       <c r="I102" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J102" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K102" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L102" t="n">
         <v>2.0</v>
@@ -12507,13 +12510,13 @@
         <v>39</v>
       </c>
       <c r="I103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J103" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L103" t="n">
         <v>2.0</v>
@@ -12546,13 +12549,13 @@
         <v>39</v>
       </c>
       <c r="I104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K104" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L104" t="n">
         <v>2.0</v>
@@ -12585,13 +12588,13 @@
         <v>39</v>
       </c>
       <c r="I105" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L105" t="n">
         <v>2.0</v>
@@ -12624,13 +12627,13 @@
         <v>39</v>
       </c>
       <c r="I106" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L106" t="n">
         <v>2.0</v>
@@ -12663,13 +12666,13 @@
         <v>39</v>
       </c>
       <c r="I107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K107" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L107" t="n">
         <v>2.0</v>
@@ -12702,13 +12705,13 @@
         <v>39</v>
       </c>
       <c r="I108" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K108" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L108" t="n">
         <v>3.0</v>
@@ -12741,13 +12744,13 @@
         <v>39</v>
       </c>
       <c r="I109" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L109" t="n">
         <v>3.0</v>
@@ -12780,13 +12783,13 @@
         <v>39</v>
       </c>
       <c r="I110" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L110" t="n">
         <v>3.0</v>
@@ -12819,13 +12822,13 @@
         <v>39</v>
       </c>
       <c r="I111" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J111" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K111" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L111" t="n">
         <v>1.0</v>
@@ -12858,13 +12861,13 @@
         <v>39</v>
       </c>
       <c r="I112" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J112" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K112" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L112" t="n">
         <v>1.0</v>
@@ -12897,13 +12900,13 @@
         <v>39</v>
       </c>
       <c r="I113" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J113" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K113" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L113" t="n">
         <v>1.0</v>
@@ -12936,13 +12939,13 @@
         <v>39</v>
       </c>
       <c r="I114" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J114" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K114" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L114" t="n">
         <v>1.0</v>
@@ -12975,13 +12978,13 @@
         <v>39</v>
       </c>
       <c r="I115" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L115" t="n">
         <v>1.0</v>
@@ -13014,13 +13017,13 @@
         <v>39</v>
       </c>
       <c r="I116" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L116" t="n">
         <v>2.0</v>
@@ -13053,13 +13056,13 @@
         <v>39</v>
       </c>
       <c r="I117" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L117" t="n">
         <v>2.0</v>
@@ -13092,13 +13095,13 @@
         <v>39</v>
       </c>
       <c r="I118" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J118" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L118" t="n">
         <v>2.0</v>
@@ -13131,13 +13134,13 @@
         <v>39</v>
       </c>
       <c r="I119" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J119" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K119" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L119" t="n">
         <v>2.0</v>
@@ -13170,13 +13173,13 @@
         <v>39</v>
       </c>
       <c r="I120" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J120" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K120" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L120" t="n">
         <v>2.0</v>
@@ -13209,13 +13212,13 @@
         <v>39</v>
       </c>
       <c r="I121" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J121" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K121" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L121" t="n">
         <v>2.0</v>
@@ -13248,13 +13251,13 @@
         <v>39</v>
       </c>
       <c r="I122" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J122" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K122" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L122" t="n">
         <v>3.0</v>
@@ -13287,13 +13290,13 @@
         <v>39</v>
       </c>
       <c r="I123" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J123" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K123" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L123" t="n">
         <v>3.0</v>
@@ -13326,13 +13329,13 @@
         <v>39</v>
       </c>
       <c r="I124" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J124" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K124" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L124" t="n">
         <v>3.0</v>
@@ -13365,13 +13368,13 @@
         <v>205</v>
       </c>
       <c r="I125" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J125" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K125" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L125" t="n">
         <v>1.0</v>
@@ -13404,13 +13407,13 @@
         <v>205</v>
       </c>
       <c r="I126" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J126" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K126" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L126" t="n">
         <v>1.0</v>
@@ -13443,13 +13446,13 @@
         <v>205</v>
       </c>
       <c r="I127" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J127" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K127" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L127" t="n">
         <v>1.0</v>
@@ -13482,13 +13485,13 @@
         <v>205</v>
       </c>
       <c r="I128" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J128" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K128" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L128" t="n">
         <v>1.0</v>
@@ -13521,13 +13524,13 @@
         <v>205</v>
       </c>
       <c r="I129" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J129" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K129" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L129" t="n">
         <v>1.0</v>
@@ -13560,13 +13563,13 @@
         <v>205</v>
       </c>
       <c r="I130" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J130" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K130" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L130" t="n">
         <v>2.0</v>
@@ -13599,13 +13602,13 @@
         <v>205</v>
       </c>
       <c r="I131" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J131" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K131" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L131" t="n">
         <v>2.0</v>
@@ -13638,13 +13641,13 @@
         <v>205</v>
       </c>
       <c r="I132" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J132" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K132" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L132" t="n">
         <v>2.0</v>
@@ -13677,13 +13680,13 @@
         <v>205</v>
       </c>
       <c r="I133" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J133" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L133" t="n">
         <v>2.0</v>
@@ -13716,13 +13719,13 @@
         <v>205</v>
       </c>
       <c r="I134" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J134" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K134" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L134" t="n">
         <v>2.0</v>
@@ -13755,13 +13758,13 @@
         <v>205</v>
       </c>
       <c r="I135" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J135" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K135" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L135" t="n">
         <v>2.0</v>
@@ -13794,13 +13797,13 @@
         <v>205</v>
       </c>
       <c r="I136" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J136" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K136" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L136" t="n">
         <v>3.0</v>
@@ -13833,13 +13836,13 @@
         <v>205</v>
       </c>
       <c r="I137" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J137" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K137" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L137" t="n">
         <v>3.0</v>
@@ -13872,13 +13875,13 @@
         <v>205</v>
       </c>
       <c r="I138" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J138" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K138" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L138" t="n">
         <v>3.0</v>
@@ -13911,13 +13914,13 @@
         <v>39</v>
       </c>
       <c r="I139" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J139" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K139" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L139" t="n">
         <v>1.0</v>
@@ -13950,13 +13953,13 @@
         <v>39</v>
       </c>
       <c r="I140" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J140" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K140" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L140" t="n">
         <v>1.0</v>
@@ -13989,13 +13992,13 @@
         <v>39</v>
       </c>
       <c r="I141" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J141" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K141" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L141" t="n">
         <v>1.0</v>
@@ -14028,13 +14031,13 @@
         <v>39</v>
       </c>
       <c r="I142" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J142" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K142" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L142" t="n">
         <v>1.0</v>
@@ -14067,13 +14070,13 @@
         <v>39</v>
       </c>
       <c r="I143" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J143" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K143" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L143" t="n">
         <v>1.0</v>
@@ -14106,13 +14109,13 @@
         <v>39</v>
       </c>
       <c r="I144" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J144" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K144" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L144" t="n">
         <v>2.0</v>
@@ -14145,13 +14148,13 @@
         <v>39</v>
       </c>
       <c r="I145" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J145" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K145" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L145" t="n">
         <v>2.0</v>
@@ -14184,13 +14187,13 @@
         <v>39</v>
       </c>
       <c r="I146" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J146" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K146" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L146" t="n">
         <v>2.0</v>
@@ -14223,13 +14226,13 @@
         <v>39</v>
       </c>
       <c r="I147" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J147" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K147" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L147" t="n">
         <v>2.0</v>
@@ -14262,13 +14265,13 @@
         <v>39</v>
       </c>
       <c r="I148" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J148" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K148" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L148" t="n">
         <v>2.0</v>
@@ -14301,13 +14304,13 @@
         <v>39</v>
       </c>
       <c r="I149" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J149" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K149" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L149" t="n">
         <v>2.0</v>
@@ -14340,13 +14343,13 @@
         <v>39</v>
       </c>
       <c r="I150" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J150" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K150" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L150" t="n">
         <v>2.0</v>
@@ -14379,13 +14382,13 @@
         <v>39</v>
       </c>
       <c r="I151" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J151" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K151" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L151" t="n">
         <v>3.0</v>
@@ -14418,13 +14421,13 @@
         <v>39</v>
       </c>
       <c r="I152" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J152" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K152" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L152" t="n">
         <v>3.0</v>
@@ -14457,13 +14460,13 @@
         <v>39</v>
       </c>
       <c r="I153" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J153" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K153" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L153" t="n">
         <v>3.0</v>
@@ -14496,13 +14499,13 @@
         <v>39</v>
       </c>
       <c r="I154" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J154" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K154" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L154" t="n">
         <v>1.0</v>
@@ -14535,13 +14538,13 @@
         <v>39</v>
       </c>
       <c r="I155" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J155" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K155" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L155" t="n">
         <v>1.0</v>
@@ -14574,13 +14577,13 @@
         <v>39</v>
       </c>
       <c r="I156" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J156" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K156" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L156" t="n">
         <v>1.0</v>
@@ -14613,13 +14616,13 @@
         <v>39</v>
       </c>
       <c r="I157" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J157" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K157" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L157" t="n">
         <v>1.0</v>
@@ -14652,13 +14655,13 @@
         <v>39</v>
       </c>
       <c r="I158" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J158" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K158" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L158" t="n">
         <v>1.0</v>
@@ -14691,13 +14694,13 @@
         <v>39</v>
       </c>
       <c r="I159" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J159" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K159" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L159" t="n">
         <v>2.0</v>
@@ -14730,13 +14733,13 @@
         <v>39</v>
       </c>
       <c r="I160" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J160" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K160" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L160" t="n">
         <v>2.0</v>
@@ -14769,13 +14772,13 @@
         <v>39</v>
       </c>
       <c r="I161" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J161" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K161" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L161" t="n">
         <v>2.0</v>
@@ -14808,13 +14811,13 @@
         <v>39</v>
       </c>
       <c r="I162" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J162" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K162" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L162" t="n">
         <v>2.0</v>
@@ -14847,13 +14850,13 @@
         <v>39</v>
       </c>
       <c r="I163" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J163" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K163" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L163" t="n">
         <v>2.0</v>
@@ -14886,13 +14889,13 @@
         <v>39</v>
       </c>
       <c r="I164" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J164" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K164" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L164" t="n">
         <v>2.0</v>
@@ -14925,13 +14928,13 @@
         <v>39</v>
       </c>
       <c r="I165" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J165" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K165" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L165" t="n">
         <v>3.0</v>
@@ -14964,13 +14967,13 @@
         <v>39</v>
       </c>
       <c r="I166" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J166" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K166" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L166" t="n">
         <v>3.0</v>
@@ -15003,13 +15006,13 @@
         <v>39</v>
       </c>
       <c r="I167" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J167" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K167" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L167" t="n">
         <v>3.0</v>
@@ -15042,13 +15045,13 @@
         <v>205</v>
       </c>
       <c r="I168" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J168" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K168" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L168" t="n">
         <v>1.0</v>
@@ -15081,13 +15084,13 @@
         <v>205</v>
       </c>
       <c r="I169" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J169" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K169" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L169" t="n">
         <v>1.0</v>
@@ -15120,13 +15123,13 @@
         <v>205</v>
       </c>
       <c r="I170" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J170" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K170" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L170" t="n">
         <v>1.0</v>
@@ -15159,13 +15162,13 @@
         <v>205</v>
       </c>
       <c r="I171" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J171" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K171" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L171" t="n">
         <v>1.0</v>
@@ -15198,13 +15201,13 @@
         <v>205</v>
       </c>
       <c r="I172" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J172" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K172" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L172" t="n">
         <v>1.0</v>
@@ -15237,13 +15240,13 @@
         <v>205</v>
       </c>
       <c r="I173" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J173" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K173" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L173" t="n">
         <v>2.0</v>
@@ -15276,13 +15279,13 @@
         <v>205</v>
       </c>
       <c r="I174" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J174" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K174" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L174" t="n">
         <v>2.0</v>
@@ -15315,13 +15318,13 @@
         <v>205</v>
       </c>
       <c r="I175" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J175" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K175" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L175" t="n">
         <v>2.0</v>
@@ -15354,13 +15357,13 @@
         <v>205</v>
       </c>
       <c r="I176" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J176" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K176" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L176" t="n">
         <v>2.0</v>
@@ -15393,13 +15396,13 @@
         <v>205</v>
       </c>
       <c r="I177" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J177" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K177" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L177" t="n">
         <v>2.0</v>
@@ -15432,13 +15435,13 @@
         <v>205</v>
       </c>
       <c r="I178" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J178" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K178" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L178" t="n">
         <v>2.0</v>
@@ -15471,13 +15474,13 @@
         <v>205</v>
       </c>
       <c r="I179" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J179" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K179" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L179" t="n">
         <v>3.0</v>
@@ -15510,13 +15513,13 @@
         <v>205</v>
       </c>
       <c r="I180" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J180" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K180" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L180" t="n">
         <v>3.0</v>
@@ -15549,13 +15552,13 @@
         <v>205</v>
       </c>
       <c r="I181" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J181" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K181" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L181" t="n">
         <v>3.0</v>
@@ -15588,13 +15591,13 @@
         <v>39</v>
       </c>
       <c r="I182" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J182" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K182" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L182" t="n">
         <v>1.0</v>
@@ -15627,13 +15630,13 @@
         <v>39</v>
       </c>
       <c r="I183" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J183" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K183" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L183" t="n">
         <v>1.0</v>
@@ -15666,13 +15669,13 @@
         <v>39</v>
       </c>
       <c r="I184" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J184" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K184" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L184" t="n">
         <v>1.0</v>
@@ -15705,13 +15708,13 @@
         <v>39</v>
       </c>
       <c r="I185" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J185" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K185" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L185" t="n">
         <v>1.0</v>
@@ -15744,13 +15747,13 @@
         <v>39</v>
       </c>
       <c r="I186" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J186" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K186" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L186" t="n">
         <v>1.0</v>
@@ -15783,13 +15786,13 @@
         <v>39</v>
       </c>
       <c r="I187" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J187" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K187" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L187" t="n">
         <v>2.0</v>
@@ -15822,13 +15825,13 @@
         <v>39</v>
       </c>
       <c r="I188" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J188" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K188" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L188" t="n">
         <v>2.0</v>
@@ -15861,13 +15864,13 @@
         <v>39</v>
       </c>
       <c r="I189" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J189" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K189" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L189" t="n">
         <v>2.0</v>
@@ -15900,13 +15903,13 @@
         <v>39</v>
       </c>
       <c r="I190" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J190" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K190" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L190" t="n">
         <v>2.0</v>
@@ -15939,13 +15942,13 @@
         <v>39</v>
       </c>
       <c r="I191" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J191" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K191" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L191" t="n">
         <v>2.0</v>
@@ -15978,13 +15981,13 @@
         <v>39</v>
       </c>
       <c r="I192" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J192" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K192" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L192" t="n">
         <v>2.0</v>
@@ -16017,13 +16020,13 @@
         <v>39</v>
       </c>
       <c r="I193" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J193" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K193" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L193" t="n">
         <v>2.0</v>
@@ -16056,13 +16059,13 @@
         <v>39</v>
       </c>
       <c r="I194" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J194" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K194" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L194" t="n">
         <v>3.0</v>
@@ -16095,13 +16098,13 @@
         <v>39</v>
       </c>
       <c r="I195" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J195" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K195" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L195" t="n">
         <v>3.0</v>
@@ -16134,13 +16137,13 @@
         <v>39</v>
       </c>
       <c r="I196" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J196" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K196" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L196" t="n">
         <v>3.0</v>
@@ -16173,13 +16176,13 @@
         <v>39</v>
       </c>
       <c r="I197" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J197" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K197" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L197" t="n">
         <v>3.0</v>
@@ -16212,13 +16215,13 @@
         <v>39</v>
       </c>
       <c r="I198" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J198" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K198" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L198" t="n">
         <v>1.0</v>
@@ -16251,13 +16254,13 @@
         <v>39</v>
       </c>
       <c r="I199" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J199" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K199" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L199" t="n">
         <v>1.0</v>
@@ -16290,13 +16293,13 @@
         <v>39</v>
       </c>
       <c r="I200" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J200" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K200" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L200" t="n">
         <v>1.0</v>
@@ -16329,13 +16332,13 @@
         <v>39</v>
       </c>
       <c r="I201" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J201" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K201" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L201" t="n">
         <v>1.0</v>
@@ -16368,13 +16371,13 @@
         <v>39</v>
       </c>
       <c r="I202" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J202" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K202" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L202" t="n">
         <v>1.0</v>
@@ -16407,13 +16410,13 @@
         <v>39</v>
       </c>
       <c r="I203" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J203" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K203" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L203" t="n">
         <v>2.0</v>
@@ -16446,13 +16449,13 @@
         <v>39</v>
       </c>
       <c r="I204" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J204" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K204" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L204" t="n">
         <v>2.0</v>
@@ -16485,13 +16488,13 @@
         <v>39</v>
       </c>
       <c r="I205" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J205" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K205" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L205" t="n">
         <v>2.0</v>
@@ -16524,13 +16527,13 @@
         <v>39</v>
       </c>
       <c r="I206" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J206" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K206" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L206" t="n">
         <v>2.0</v>
@@ -16563,13 +16566,13 @@
         <v>39</v>
       </c>
       <c r="I207" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J207" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K207" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L207" t="n">
         <v>2.0</v>
@@ -16602,13 +16605,13 @@
         <v>39</v>
       </c>
       <c r="I208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J208" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K208" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L208" t="n">
         <v>2.0</v>
@@ -16641,13 +16644,13 @@
         <v>39</v>
       </c>
       <c r="I209" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J209" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K209" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L209" t="n">
         <v>3.0</v>
@@ -16680,13 +16683,13 @@
         <v>39</v>
       </c>
       <c r="I210" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J210" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K210" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L210" t="n">
         <v>3.0</v>
@@ -16719,13 +16722,13 @@
         <v>39</v>
       </c>
       <c r="I211" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J211" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K211" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L211" t="n">
         <v>3.0</v>
@@ -16758,13 +16761,13 @@
         <v>39</v>
       </c>
       <c r="I212" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J212" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K212" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L212" t="n">
         <v>3.0</v>
@@ -16797,13 +16800,13 @@
         <v>205</v>
       </c>
       <c r="I213" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J213" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K213" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L213" t="n">
         <v>1.0</v>
@@ -16836,13 +16839,13 @@
         <v>205</v>
       </c>
       <c r="I214" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J214" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K214" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L214" t="n">
         <v>1.0</v>
@@ -16875,13 +16878,13 @@
         <v>205</v>
       </c>
       <c r="I215" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J215" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K215" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L215" t="n">
         <v>1.0</v>
@@ -16914,13 +16917,13 @@
         <v>205</v>
       </c>
       <c r="I216" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J216" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K216" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L216" t="n">
         <v>1.0</v>
@@ -16953,13 +16956,13 @@
         <v>205</v>
       </c>
       <c r="I217" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J217" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K217" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L217" t="n">
         <v>1.0</v>
@@ -16992,13 +16995,13 @@
         <v>205</v>
       </c>
       <c r="I218" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J218" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K218" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L218" t="n">
         <v>2.0</v>
@@ -17031,13 +17034,13 @@
         <v>205</v>
       </c>
       <c r="I219" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J219" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L219" t="n">
         <v>2.0</v>
@@ -17070,13 +17073,13 @@
         <v>205</v>
       </c>
       <c r="I220" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J220" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K220" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L220" t="n">
         <v>2.0</v>
@@ -17109,13 +17112,13 @@
         <v>205</v>
       </c>
       <c r="I221" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J221" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K221" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L221" t="n">
         <v>2.0</v>
@@ -17148,13 +17151,13 @@
         <v>205</v>
       </c>
       <c r="I222" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J222" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K222" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L222" t="n">
         <v>2.0</v>
@@ -17187,13 +17190,13 @@
         <v>205</v>
       </c>
       <c r="I223" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J223" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K223" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L223" t="n">
         <v>2.0</v>
@@ -17226,13 +17229,13 @@
         <v>205</v>
       </c>
       <c r="I224" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J224" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K224" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L224" t="n">
         <v>3.0</v>
@@ -17265,13 +17268,13 @@
         <v>205</v>
       </c>
       <c r="I225" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J225" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K225" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L225" t="n">
         <v>3.0</v>
@@ -17304,13 +17307,13 @@
         <v>205</v>
       </c>
       <c r="I226" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J226" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K226" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L226" t="n">
         <v>3.0</v>
@@ -17343,13 +17346,13 @@
         <v>39</v>
       </c>
       <c r="I227" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J227" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K227" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L227" t="n">
         <v>1.0</v>
@@ -17382,13 +17385,13 @@
         <v>39</v>
       </c>
       <c r="I228" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J228" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K228" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L228" t="n">
         <v>1.0</v>
@@ -17421,13 +17424,13 @@
         <v>39</v>
       </c>
       <c r="I229" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J229" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K229" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L229" t="n">
         <v>1.0</v>
@@ -17460,13 +17463,13 @@
         <v>39</v>
       </c>
       <c r="I230" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J230" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K230" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L230" t="n">
         <v>1.0</v>
@@ -17499,13 +17502,13 @@
         <v>39</v>
       </c>
       <c r="I231" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J231" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K231" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L231" t="n">
         <v>1.0</v>
@@ -17538,13 +17541,13 @@
         <v>39</v>
       </c>
       <c r="I232" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J232" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K232" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L232" t="n">
         <v>2.0</v>
@@ -17577,13 +17580,13 @@
         <v>39</v>
       </c>
       <c r="I233" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J233" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K233" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L233" t="n">
         <v>2.0</v>
@@ -17616,13 +17619,13 @@
         <v>39</v>
       </c>
       <c r="I234" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J234" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K234" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L234" t="n">
         <v>2.0</v>
@@ -17655,13 +17658,13 @@
         <v>39</v>
       </c>
       <c r="I235" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J235" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K235" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L235" t="n">
         <v>2.0</v>
@@ -17694,13 +17697,13 @@
         <v>39</v>
       </c>
       <c r="I236" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J236" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K236" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L236" t="n">
         <v>2.0</v>
@@ -17733,13 +17736,13 @@
         <v>39</v>
       </c>
       <c r="I237" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J237" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K237" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L237" t="n">
         <v>2.0</v>
@@ -17772,13 +17775,13 @@
         <v>39</v>
       </c>
       <c r="I238" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J238" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K238" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L238" t="n">
         <v>2.0</v>
@@ -17811,13 +17814,13 @@
         <v>39</v>
       </c>
       <c r="I239" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J239" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K239" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L239" t="n">
         <v>3.0</v>
@@ -17850,13 +17853,13 @@
         <v>39</v>
       </c>
       <c r="I240" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J240" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K240" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L240" t="n">
         <v>3.0</v>
@@ -17889,13 +17892,13 @@
         <v>39</v>
       </c>
       <c r="I241" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J241" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K241" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L241" t="n">
         <v>3.0</v>
@@ -17928,13 +17931,13 @@
         <v>39</v>
       </c>
       <c r="I242" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J242" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K242" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L242" t="n">
         <v>1.0</v>
@@ -17967,13 +17970,13 @@
         <v>39</v>
       </c>
       <c r="I243" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J243" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K243" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L243" t="n">
         <v>1.0</v>
@@ -18006,13 +18009,13 @@
         <v>39</v>
       </c>
       <c r="I244" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J244" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K244" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L244" t="n">
         <v>1.0</v>
@@ -18045,13 +18048,13 @@
         <v>39</v>
       </c>
       <c r="I245" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J245" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K245" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L245" t="n">
         <v>1.0</v>
@@ -18084,13 +18087,13 @@
         <v>39</v>
       </c>
       <c r="I246" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J246" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K246" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L246" t="n">
         <v>1.0</v>
@@ -18123,13 +18126,13 @@
         <v>39</v>
       </c>
       <c r="I247" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J247" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K247" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L247" t="n">
         <v>2.0</v>
@@ -18162,13 +18165,13 @@
         <v>39</v>
       </c>
       <c r="I248" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J248" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K248" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L248" t="n">
         <v>2.0</v>
@@ -18201,13 +18204,13 @@
         <v>39</v>
       </c>
       <c r="I249" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J249" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K249" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L249" t="n">
         <v>2.0</v>
@@ -18240,13 +18243,13 @@
         <v>39</v>
       </c>
       <c r="I250" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J250" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K250" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L250" t="n">
         <v>2.0</v>
@@ -18279,13 +18282,13 @@
         <v>39</v>
       </c>
       <c r="I251" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J251" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K251" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L251" t="n">
         <v>2.0</v>
@@ -18318,13 +18321,13 @@
         <v>39</v>
       </c>
       <c r="I252" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J252" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K252" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L252" t="n">
         <v>2.0</v>
@@ -18357,13 +18360,13 @@
         <v>39</v>
       </c>
       <c r="I253" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J253" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K253" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L253" t="n">
         <v>3.0</v>
@@ -18396,13 +18399,13 @@
         <v>39</v>
       </c>
       <c r="I254" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J254" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K254" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L254" t="n">
         <v>3.0</v>
@@ -18435,13 +18438,13 @@
         <v>39</v>
       </c>
       <c r="I255" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J255" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K255" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L255" t="n">
         <v>3.0</v>
@@ -18474,13 +18477,13 @@
         <v>205</v>
       </c>
       <c r="I256" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J256" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K256" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L256" t="n">
         <v>1.0</v>
@@ -18513,13 +18516,13 @@
         <v>205</v>
       </c>
       <c r="I257" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J257" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K257" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L257" t="n">
         <v>1.0</v>
@@ -18552,13 +18555,13 @@
         <v>205</v>
       </c>
       <c r="I258" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J258" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K258" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L258" t="n">
         <v>1.0</v>
@@ -18591,13 +18594,13 @@
         <v>205</v>
       </c>
       <c r="I259" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J259" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K259" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L259" t="n">
         <v>1.0</v>
@@ -18630,13 +18633,13 @@
         <v>205</v>
       </c>
       <c r="I260" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J260" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K260" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L260" t="n">
         <v>1.0</v>
@@ -18669,13 +18672,13 @@
         <v>205</v>
       </c>
       <c r="I261" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J261" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K261" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L261" t="n">
         <v>2.0</v>
@@ -18708,13 +18711,13 @@
         <v>205</v>
       </c>
       <c r="I262" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J262" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K262" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L262" t="n">
         <v>2.0</v>
@@ -18747,13 +18750,13 @@
         <v>205</v>
       </c>
       <c r="I263" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J263" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K263" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L263" t="n">
         <v>2.0</v>
@@ -18786,13 +18789,13 @@
         <v>205</v>
       </c>
       <c r="I264" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J264" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K264" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L264" t="n">
         <v>2.0</v>
@@ -18825,13 +18828,13 @@
         <v>205</v>
       </c>
       <c r="I265" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J265" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K265" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L265" t="n">
         <v>2.0</v>
@@ -18864,13 +18867,13 @@
         <v>205</v>
       </c>
       <c r="I266" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J266" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K266" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L266" t="n">
         <v>2.0</v>
@@ -18903,13 +18906,13 @@
         <v>205</v>
       </c>
       <c r="I267" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J267" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K267" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L267" t="n">
         <v>3.0</v>
@@ -18942,13 +18945,13 @@
         <v>205</v>
       </c>
       <c r="I268" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J268" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K268" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L268" t="n">
         <v>3.0</v>
@@ -18981,13 +18984,13 @@
         <v>205</v>
       </c>
       <c r="I269" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J269" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K269" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L269" t="n">
         <v>3.0</v>
@@ -19020,13 +19023,13 @@
         <v>39</v>
       </c>
       <c r="I270" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J270" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K270" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L270" t="n">
         <v>1.0</v>
@@ -19059,13 +19062,13 @@
         <v>39</v>
       </c>
       <c r="I271" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J271" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K271" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L271" t="n">
         <v>1.0</v>
@@ -19098,13 +19101,13 @@
         <v>39</v>
       </c>
       <c r="I272" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J272" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K272" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L272" t="n">
         <v>1.0</v>
@@ -19137,13 +19140,13 @@
         <v>39</v>
       </c>
       <c r="I273" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J273" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K273" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L273" t="n">
         <v>1.0</v>
@@ -19176,13 +19179,13 @@
         <v>39</v>
       </c>
       <c r="I274" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J274" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K274" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L274" t="n">
         <v>1.0</v>
@@ -19215,13 +19218,13 @@
         <v>39</v>
       </c>
       <c r="I275" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J275" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K275" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L275" t="n">
         <v>2.0</v>
@@ -19254,13 +19257,13 @@
         <v>39</v>
       </c>
       <c r="I276" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J276" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K276" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L276" t="n">
         <v>2.0</v>
@@ -19293,13 +19296,13 @@
         <v>39</v>
       </c>
       <c r="I277" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J277" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K277" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L277" t="n">
         <v>2.0</v>
@@ -19332,13 +19335,13 @@
         <v>39</v>
       </c>
       <c r="I278" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J278" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K278" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L278" t="n">
         <v>2.0</v>
@@ -19371,13 +19374,13 @@
         <v>39</v>
       </c>
       <c r="I279" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J279" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K279" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L279" t="n">
         <v>2.0</v>
@@ -19410,13 +19413,13 @@
         <v>39</v>
       </c>
       <c r="I280" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J280" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K280" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L280" t="n">
         <v>2.0</v>
@@ -19449,13 +19452,13 @@
         <v>39</v>
       </c>
       <c r="I281" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J281" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K281" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L281" t="n">
         <v>2.0</v>
@@ -19488,13 +19491,13 @@
         <v>39</v>
       </c>
       <c r="I282" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J282" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K282" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L282" t="n">
         <v>3.0</v>
@@ -19527,13 +19530,13 @@
         <v>39</v>
       </c>
       <c r="I283" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J283" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K283" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L283" t="n">
         <v>3.0</v>
@@ -19566,13 +19569,13 @@
         <v>39</v>
       </c>
       <c r="I284" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J284" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K284" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L284" t="n">
         <v>3.0</v>
@@ -19605,13 +19608,13 @@
         <v>39</v>
       </c>
       <c r="I285" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J285" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K285" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L285" t="n">
         <v>3.0</v>
@@ -19644,13 +19647,13 @@
         <v>39</v>
       </c>
       <c r="I286" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J286" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K286" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L286" t="n">
         <v>1.0</v>
@@ -19683,13 +19686,13 @@
         <v>39</v>
       </c>
       <c r="I287" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J287" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K287" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L287" t="n">
         <v>1.0</v>
@@ -19722,13 +19725,13 @@
         <v>39</v>
       </c>
       <c r="I288" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J288" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K288" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L288" t="n">
         <v>1.0</v>
@@ -19761,13 +19764,13 @@
         <v>39</v>
       </c>
       <c r="I289" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J289" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K289" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L289" t="n">
         <v>1.0</v>
@@ -19800,13 +19803,13 @@
         <v>39</v>
       </c>
       <c r="I290" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J290" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K290" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L290" t="n">
         <v>1.0</v>
@@ -19839,13 +19842,13 @@
         <v>39</v>
       </c>
       <c r="I291" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J291" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K291" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L291" t="n">
         <v>2.0</v>
@@ -19878,13 +19881,13 @@
         <v>39</v>
       </c>
       <c r="I292" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J292" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K292" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L292" t="n">
         <v>2.0</v>
@@ -19917,13 +19920,13 @@
         <v>39</v>
       </c>
       <c r="I293" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J293" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K293" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L293" t="n">
         <v>2.0</v>
@@ -19956,13 +19959,13 @@
         <v>39</v>
       </c>
       <c r="I294" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J294" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K294" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L294" t="n">
         <v>2.0</v>
@@ -19995,13 +19998,13 @@
         <v>39</v>
       </c>
       <c r="I295" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J295" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K295" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L295" t="n">
         <v>2.0</v>
@@ -20034,13 +20037,13 @@
         <v>39</v>
       </c>
       <c r="I296" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J296" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K296" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L296" t="n">
         <v>2.0</v>
@@ -20073,13 +20076,13 @@
         <v>39</v>
       </c>
       <c r="I297" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J297" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K297" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L297" t="n">
         <v>3.0</v>
@@ -20112,13 +20115,13 @@
         <v>39</v>
       </c>
       <c r="I298" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J298" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K298" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L298" t="n">
         <v>3.0</v>
@@ -20151,13 +20154,13 @@
         <v>39</v>
       </c>
       <c r="I299" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J299" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K299" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L299" t="n">
         <v>3.0</v>
@@ -20190,13 +20193,13 @@
         <v>39</v>
       </c>
       <c r="I300" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J300" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K300" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L300" t="n">
         <v>3.0</v>
@@ -20229,13 +20232,13 @@
         <v>205</v>
       </c>
       <c r="I301" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J301" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K301" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L301" t="n">
         <v>1.0</v>
@@ -20268,13 +20271,13 @@
         <v>205</v>
       </c>
       <c r="I302" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J302" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K302" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L302" t="n">
         <v>1.0</v>
@@ -20307,13 +20310,13 @@
         <v>205</v>
       </c>
       <c r="I303" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J303" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K303" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L303" t="n">
         <v>1.0</v>
@@ -20346,13 +20349,13 @@
         <v>205</v>
       </c>
       <c r="I304" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J304" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K304" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L304" t="n">
         <v>1.0</v>
@@ -20385,13 +20388,13 @@
         <v>205</v>
       </c>
       <c r="I305" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J305" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K305" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L305" t="n">
         <v>1.0</v>
@@ -20424,13 +20427,13 @@
         <v>205</v>
       </c>
       <c r="I306" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J306" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K306" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L306" t="n">
         <v>2.0</v>
@@ -20463,13 +20466,13 @@
         <v>205</v>
       </c>
       <c r="I307" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J307" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K307" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L307" t="n">
         <v>2.0</v>
@@ -20502,13 +20505,13 @@
         <v>205</v>
       </c>
       <c r="I308" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J308" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K308" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L308" t="n">
         <v>2.0</v>
@@ -20541,13 +20544,13 @@
         <v>205</v>
       </c>
       <c r="I309" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J309" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K309" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L309" t="n">
         <v>2.0</v>
@@ -20580,13 +20583,13 @@
         <v>205</v>
       </c>
       <c r="I310" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J310" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K310" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L310" t="n">
         <v>2.0</v>
@@ -20619,13 +20622,13 @@
         <v>205</v>
       </c>
       <c r="I311" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J311" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K311" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L311" t="n">
         <v>2.0</v>
@@ -20658,13 +20661,13 @@
         <v>205</v>
       </c>
       <c r="I312" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J312" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K312" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L312" t="n">
         <v>3.0</v>
@@ -20697,13 +20700,13 @@
         <v>205</v>
       </c>
       <c r="I313" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J313" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K313" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L313" t="n">
         <v>3.0</v>
@@ -20736,13 +20739,13 @@
         <v>205</v>
       </c>
       <c r="I314" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J314" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K314" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L314" t="n">
         <v>3.0</v>
@@ -20775,13 +20778,13 @@
         <v>39</v>
       </c>
       <c r="I315" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J315" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K315" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L315" t="n">
         <v>1.0</v>
@@ -20814,13 +20817,13 @@
         <v>39</v>
       </c>
       <c r="I316" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J316" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K316" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L316" t="n">
         <v>1.0</v>
@@ -20853,13 +20856,13 @@
         <v>39</v>
       </c>
       <c r="I317" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J317" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K317" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L317" t="n">
         <v>1.0</v>
@@ -20892,13 +20895,13 @@
         <v>39</v>
       </c>
       <c r="I318" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J318" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K318" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L318" t="n">
         <v>1.0</v>
@@ -20931,13 +20934,13 @@
         <v>39</v>
       </c>
       <c r="I319" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J319" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K319" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L319" t="n">
         <v>1.0</v>
@@ -20970,13 +20973,13 @@
         <v>39</v>
       </c>
       <c r="I320" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J320" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K320" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L320" t="n">
         <v>2.0</v>
@@ -21009,13 +21012,13 @@
         <v>39</v>
       </c>
       <c r="I321" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J321" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K321" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L321" t="n">
         <v>2.0</v>
@@ -21048,13 +21051,13 @@
         <v>39</v>
       </c>
       <c r="I322" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J322" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K322" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L322" t="n">
         <v>2.0</v>
@@ -21087,13 +21090,13 @@
         <v>39</v>
       </c>
       <c r="I323" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J323" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K323" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L323" t="n">
         <v>2.0</v>
@@ -21126,13 +21129,13 @@
         <v>39</v>
       </c>
       <c r="I324" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J324" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K324" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L324" t="n">
         <v>2.0</v>
@@ -21165,13 +21168,13 @@
         <v>39</v>
       </c>
       <c r="I325" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J325" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K325" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L325" t="n">
         <v>2.0</v>
@@ -21204,13 +21207,13 @@
         <v>39</v>
       </c>
       <c r="I326" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J326" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K326" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L326" t="n">
         <v>2.0</v>
@@ -21243,13 +21246,13 @@
         <v>39</v>
       </c>
       <c r="I327" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J327" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K327" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L327" t="n">
         <v>3.0</v>
@@ -21282,13 +21285,13 @@
         <v>39</v>
       </c>
       <c r="I328" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J328" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K328" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L328" t="n">
         <v>3.0</v>
@@ -21321,13 +21324,13 @@
         <v>39</v>
       </c>
       <c r="I329" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J329" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K329" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L329" t="n">
         <v>3.0</v>
@@ -21360,13 +21363,13 @@
         <v>39</v>
       </c>
       <c r="I330" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J330" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K330" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L330" t="n">
         <v>1.0</v>
@@ -21399,13 +21402,13 @@
         <v>39</v>
       </c>
       <c r="I331" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J331" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K331" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L331" t="n">
         <v>1.0</v>
@@ -21438,13 +21441,13 @@
         <v>39</v>
       </c>
       <c r="I332" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J332" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K332" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L332" t="n">
         <v>1.0</v>
@@ -21477,13 +21480,13 @@
         <v>39</v>
       </c>
       <c r="I333" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J333" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K333" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L333" t="n">
         <v>1.0</v>
@@ -21516,13 +21519,13 @@
         <v>39</v>
       </c>
       <c r="I334" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J334" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K334" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L334" t="n">
         <v>1.0</v>
@@ -21555,13 +21558,13 @@
         <v>39</v>
       </c>
       <c r="I335" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J335" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K335" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L335" t="n">
         <v>2.0</v>
@@ -21594,13 +21597,13 @@
         <v>39</v>
       </c>
       <c r="I336" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J336" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K336" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L336" t="n">
         <v>2.0</v>
@@ -21633,13 +21636,13 @@
         <v>39</v>
       </c>
       <c r="I337" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J337" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K337" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L337" t="n">
         <v>2.0</v>
@@ -21672,13 +21675,13 @@
         <v>39</v>
       </c>
       <c r="I338" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J338" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K338" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L338" t="n">
         <v>2.0</v>
@@ -21711,13 +21714,13 @@
         <v>39</v>
       </c>
       <c r="I339" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J339" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K339" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L339" t="n">
         <v>2.0</v>
@@ -21750,13 +21753,13 @@
         <v>39</v>
       </c>
       <c r="I340" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J340" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K340" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L340" t="n">
         <v>2.0</v>
@@ -21789,13 +21792,13 @@
         <v>39</v>
       </c>
       <c r="I341" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J341" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K341" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L341" t="n">
         <v>3.0</v>
@@ -21828,13 +21831,13 @@
         <v>39</v>
       </c>
       <c r="I342" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J342" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K342" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L342" t="n">
         <v>3.0</v>
@@ -21867,13 +21870,13 @@
         <v>39</v>
       </c>
       <c r="I343" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J343" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K343" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L343" t="n">
         <v>3.0</v>
@@ -21906,13 +21909,13 @@
         <v>205</v>
       </c>
       <c r="I344" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J344" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K344" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L344" t="n">
         <v>1.0</v>
@@ -21945,13 +21948,13 @@
         <v>205</v>
       </c>
       <c r="I345" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J345" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K345" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L345" t="n">
         <v>1.0</v>
@@ -21984,13 +21987,13 @@
         <v>205</v>
       </c>
       <c r="I346" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J346" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K346" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L346" t="n">
         <v>1.0</v>
@@ -22023,13 +22026,13 @@
         <v>205</v>
       </c>
       <c r="I347" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J347" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K347" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L347" t="n">
         <v>1.0</v>
@@ -22062,13 +22065,13 @@
         <v>205</v>
       </c>
       <c r="I348" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J348" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K348" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L348" t="n">
         <v>1.0</v>
@@ -22101,13 +22104,13 @@
         <v>205</v>
       </c>
       <c r="I349" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J349" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K349" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L349" t="n">
         <v>2.0</v>
@@ -22140,13 +22143,13 @@
         <v>205</v>
       </c>
       <c r="I350" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J350" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K350" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L350" t="n">
         <v>2.0</v>
@@ -22179,13 +22182,13 @@
         <v>205</v>
       </c>
       <c r="I351" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J351" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K351" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L351" t="n">
         <v>2.0</v>
@@ -22218,13 +22221,13 @@
         <v>205</v>
       </c>
       <c r="I352" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J352" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K352" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L352" t="n">
         <v>2.0</v>
@@ -22257,13 +22260,13 @@
         <v>205</v>
       </c>
       <c r="I353" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J353" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K353" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L353" t="n">
         <v>2.0</v>
@@ -22296,13 +22299,13 @@
         <v>205</v>
       </c>
       <c r="I354" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J354" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K354" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L354" t="n">
         <v>2.0</v>
@@ -22335,13 +22338,13 @@
         <v>205</v>
       </c>
       <c r="I355" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J355" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K355" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L355" t="n">
         <v>3.0</v>
@@ -22374,13 +22377,13 @@
         <v>205</v>
       </c>
       <c r="I356" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J356" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K356" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L356" t="n">
         <v>3.0</v>
@@ -22413,13 +22416,13 @@
         <v>205</v>
       </c>
       <c r="I357" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J357" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K357" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L357" t="n">
         <v>3.0</v>
@@ -22445,7 +22448,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2"/>
@@ -22466,22 +22469,22 @@
         <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4">
@@ -22493,10 +22496,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -22507,7 +22510,7 @@
         <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K4"/>
     </row>
@@ -22520,10 +22523,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -22545,10 +22548,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -22570,10 +22573,10 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -22595,10 +22598,10 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -22620,10 +22623,10 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -22645,10 +22648,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -22670,10 +22673,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -22701,7 +22704,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2"/>
@@ -22728,7 +22731,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
@@ -22743,7 +22746,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
@@ -22763,7 +22766,7 @@
         <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
@@ -22783,7 +22786,7 @@
         <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
@@ -22803,14 +22806,14 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8">
@@ -22825,7 +22828,7 @@
         <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
@@ -22845,7 +22848,7 @@
         <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
@@ -22865,7 +22868,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
@@ -22885,7 +22888,7 @@
         <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
@@ -22905,7 +22908,7 @@
         <v>141</v>
       </c>
       <c r="E12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
@@ -22925,7 +22928,7 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
@@ -22945,7 +22948,7 @@
         <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
@@ -22965,7 +22968,7 @@
         <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
@@ -22985,7 +22988,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
@@ -23005,7 +23008,7 @@
         <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
@@ -23025,7 +23028,7 @@
         <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
@@ -23045,7 +23048,7 @@
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
@@ -23065,7 +23068,7 @@
         <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
@@ -23085,7 +23088,7 @@
         <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
@@ -23105,7 +23108,7 @@
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
@@ -23125,7 +23128,7 @@
         <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
@@ -23145,7 +23148,7 @@
         <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
@@ -23165,7 +23168,7 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
@@ -23185,7 +23188,7 @@
         <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
@@ -23205,7 +23208,7 @@
         <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
@@ -23228,7 +23231,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2"/>
@@ -23261,7 +23264,7 @@
         <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5">
@@ -23321,7 +23324,7 @@
         <v>134</v>
       </c>
       <c r="E8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9">
@@ -23351,7 +23354,7 @@
         <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11">
@@ -23381,7 +23384,7 @@
         <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13">
@@ -23411,7 +23414,7 @@
         <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15">
@@ -23441,7 +23444,7 @@
         <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17">
@@ -23471,7 +23474,7 @@
         <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19">
